--- a/Software.xlsx
+++ b/Software.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E94402E-99D2-4841-A651-B8BE3AEA0412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3534E9C7-946C-45CF-9C7E-4B7A8BFB950A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18975" yWindow="1875" windowWidth="32715" windowHeight="15915" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="38700" windowHeight="15345" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="14" r:id="rId1"/>
@@ -15,16 +15,16 @@
     <sheet name="Enterprise-Cloud" sheetId="10" r:id="rId5"/>
     <sheet name="Social-Dating" sheetId="9" r:id="rId6"/>
     <sheet name="Simulation-Technical Design" sheetId="11" r:id="rId7"/>
-    <sheet name="Media-Games-Design" sheetId="8" r:id="rId8"/>
-    <sheet name="Fintech" sheetId="7" r:id="rId9"/>
-    <sheet name="Ecommerce" sheetId="5" r:id="rId10"/>
-    <sheet name="Security" sheetId="4" r:id="rId11"/>
-    <sheet name="FX" sheetId="3" r:id="rId12"/>
-    <sheet name="Private" sheetId="2" r:id="rId13"/>
+    <sheet name="AI" sheetId="15" r:id="rId8"/>
+    <sheet name="Revenue" sheetId="16" r:id="rId9"/>
+    <sheet name="Media-Games-Design" sheetId="8" r:id="rId10"/>
+    <sheet name="Fintech" sheetId="7" r:id="rId11"/>
+    <sheet name="Ecommerce" sheetId="5" r:id="rId12"/>
+    <sheet name="Security" sheetId="4" r:id="rId13"/>
+    <sheet name="FX" sheetId="3" r:id="rId14"/>
+    <sheet name="Private" sheetId="2" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
-    <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
@@ -57,6 +57,11 @@
     <externalReference r:id="rId45"/>
     <externalReference r:id="rId46"/>
     <externalReference r:id="rId47"/>
+    <externalReference r:id="rId48"/>
+    <externalReference r:id="rId49"/>
+    <externalReference r:id="rId50"/>
+    <externalReference r:id="rId51"/>
+    <externalReference r:id="rId52"/>
   </externalReferences>
   <definedNames>
     <definedName name="CAD">FX!$C$7</definedName>
@@ -123,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="549">
   <si>
     <t>Name</t>
   </si>
@@ -1148,9 +1153,6 @@
     <t>Kakao</t>
   </si>
   <si>
-    <t>Gas</t>
-  </si>
-  <si>
     <t>035720 KS</t>
   </si>
   <si>
@@ -1302,22 +1304,572 @@
   </si>
   <si>
     <t>Opendoor</t>
+  </si>
+  <si>
+    <t>Q422</t>
+  </si>
+  <si>
+    <t>SONY</t>
+  </si>
+  <si>
+    <t>Replit</t>
+  </si>
+  <si>
+    <t>NowCoder</t>
+  </si>
+  <si>
+    <t>Turing</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Sprinklr</t>
+  </si>
+  <si>
+    <t>CXM</t>
+  </si>
+  <si>
+    <t>MathWorks</t>
+  </si>
+  <si>
+    <t>Matlab</t>
+  </si>
+  <si>
+    <t>OpenAI</t>
+  </si>
+  <si>
+    <t>Series B</t>
+  </si>
+  <si>
+    <t>Claude</t>
+  </si>
+  <si>
+    <t>Dario Amodei</t>
+  </si>
+  <si>
+    <t>Cohere</t>
+  </si>
+  <si>
+    <t>AI21 Labs</t>
+  </si>
+  <si>
+    <t>580m</t>
+  </si>
+  <si>
+    <t>Doximity</t>
+  </si>
+  <si>
+    <t>Nextracker</t>
+  </si>
+  <si>
+    <t>Confluent</t>
+  </si>
+  <si>
+    <t>Pinecone</t>
+  </si>
+  <si>
+    <t>Langchain</t>
+  </si>
+  <si>
+    <t>Last Round</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>ChatGPT</t>
+  </si>
+  <si>
+    <t>Bard</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t>Stability AI</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>Perplexity AI</t>
+  </si>
+  <si>
+    <t>Character AI</t>
+  </si>
+  <si>
+    <t>Hugging Face</t>
+  </si>
+  <si>
+    <t>Jasper</t>
+  </si>
+  <si>
+    <t>Fetch.ai</t>
+  </si>
+  <si>
+    <t>Weights and Biases</t>
+  </si>
+  <si>
+    <t>Glean</t>
+  </si>
+  <si>
+    <t>Typeface</t>
+  </si>
+  <si>
+    <t>Cruise</t>
+  </si>
+  <si>
+    <t>Databricks</t>
+  </si>
+  <si>
+    <t>2100m</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>1600m</t>
+  </si>
+  <si>
+    <t>10000m</t>
+  </si>
+  <si>
+    <t>Olive</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Adept AI</t>
+  </si>
+  <si>
+    <t>350m</t>
+  </si>
+  <si>
+    <t>Inflection AI</t>
+  </si>
+  <si>
+    <t>Moveworks</t>
+  </si>
+  <si>
+    <t>Zoovu</t>
+  </si>
+  <si>
+    <t>Nauto</t>
+  </si>
+  <si>
+    <t>Element AI</t>
+  </si>
+  <si>
+    <t>150m</t>
+  </si>
+  <si>
+    <t>Concert AI</t>
+  </si>
+  <si>
+    <t>Clarify Health</t>
+  </si>
+  <si>
+    <t>Innovaccer</t>
+  </si>
+  <si>
+    <t>Jumio</t>
+  </si>
+  <si>
+    <t>Verbit</t>
+  </si>
+  <si>
+    <t>Yi+</t>
+  </si>
+  <si>
+    <t>Xiaoice</t>
+  </si>
+  <si>
+    <t>K Health</t>
+  </si>
+  <si>
+    <t>Observe.AI</t>
+  </si>
+  <si>
+    <t>Climavision</t>
+  </si>
+  <si>
+    <t>Parametrix AI</t>
+  </si>
+  <si>
+    <t>People.ai</t>
+  </si>
+  <si>
+    <t>Game, NPC world</t>
+  </si>
+  <si>
+    <t>Ascertain</t>
+  </si>
+  <si>
+    <t>Noam Shazeer</t>
+  </si>
+  <si>
+    <t>Seekr</t>
+  </si>
+  <si>
+    <t>Inworld</t>
+  </si>
+  <si>
+    <t>Wizard</t>
+  </si>
+  <si>
+    <t>Ecommerce</t>
+  </si>
+  <si>
+    <t>The Applied AI Company</t>
+  </si>
+  <si>
+    <t>Irreverant Labs</t>
+  </si>
+  <si>
+    <t>Modular</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>Neo Cybernetica</t>
+  </si>
+  <si>
+    <t>Stealth</t>
+  </si>
+  <si>
+    <t>AXON Networks</t>
+  </si>
+  <si>
+    <t>Orchestration</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>Exafunction</t>
+  </si>
+  <si>
+    <t>EnCharge AI</t>
+  </si>
+  <si>
+    <t>Generally Intelligent</t>
+  </si>
+  <si>
+    <t>Two Platforms</t>
+  </si>
+  <si>
+    <t>Fixie.ai</t>
+  </si>
+  <si>
+    <t>Enchanted Tools</t>
+  </si>
+  <si>
+    <t>Tenyx</t>
+  </si>
+  <si>
+    <t>Haiper</t>
+  </si>
+  <si>
+    <t>Notion</t>
+  </si>
+  <si>
+    <t>Sequoia, Coatue, Shine</t>
+  </si>
+  <si>
+    <t>275 Series C 10/8/2021</t>
+  </si>
+  <si>
+    <t>50m Series B 4/2/2020 at 2B</t>
+  </si>
+  <si>
+    <t>Niantic</t>
+  </si>
+  <si>
+    <t>Paddle</t>
+  </si>
+  <si>
+    <t>100m</t>
+  </si>
+  <si>
+    <t>Benchling</t>
+  </si>
+  <si>
+    <t>Vercel</t>
+  </si>
+  <si>
+    <t>BlueSky</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>TikTok</t>
+  </si>
+  <si>
+    <t>Cadence</t>
+  </si>
+  <si>
+    <t>MicroPro</t>
+  </si>
+  <si>
+    <t>Fielded WordStar, first word processor</t>
+  </si>
+  <si>
+    <t>VisiCalc</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Cerner</t>
+  </si>
+  <si>
+    <t>PeopleSoft</t>
+  </si>
+  <si>
+    <t>Siebel</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>Aquantive</t>
+  </si>
+  <si>
+    <t>Red Hat</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>175m</t>
+  </si>
+  <si>
+    <t>FSD</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>TSLA</t>
+  </si>
+  <si>
+    <t>10m</t>
+  </si>
+  <si>
+    <t>Midjourney</t>
+  </si>
+  <si>
+    <t>0m</t>
+  </si>
+  <si>
+    <t>Dev Platform</t>
+  </si>
+  <si>
+    <t>135m</t>
+  </si>
+  <si>
+    <t>125m</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>Llama</t>
+  </si>
+  <si>
+    <t>Yann Le Cun</t>
+  </si>
+  <si>
+    <t>Ilya Sustkever, Andrej Karpathy</t>
+  </si>
+  <si>
+    <t>GPT4, ChatGPT</t>
+  </si>
+  <si>
+    <t>Series C in progress</t>
+  </si>
+  <si>
+    <t>Self-Funded</t>
+  </si>
+  <si>
+    <t>Hyperwrite</t>
+  </si>
+  <si>
+    <t>GPT4All</t>
+  </si>
+  <si>
+    <t>GPT-J</t>
+  </si>
+  <si>
+    <t>Yuvanesh Anand, Zach Nussbaum, Brandon Duderstadt, Benjamin Schmidt, Andriy Mulyar</t>
+  </si>
+  <si>
+    <t>Paperspace</t>
+  </si>
+  <si>
+    <t>Nomic</t>
+  </si>
+  <si>
+    <t>Chroma</t>
+  </si>
+  <si>
+    <t>https://github.com/tloen/alpaca-lora</t>
+  </si>
+  <si>
+    <t>Repos/Projects</t>
+  </si>
+  <si>
+    <t>Alpaca-Lora</t>
+  </si>
+  <si>
+    <t>Jurassic-2</t>
+  </si>
+  <si>
+    <t>Docs</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/datasets/nomic-ai/gpt4all-j-prompt-generations/tree/main/data</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/chansung/alpaca-lora-65b/tree/main</t>
+  </si>
+  <si>
+    <t>Alpaca-Lora-65B</t>
+  </si>
+  <si>
+    <t>H2O GPT</t>
+  </si>
+  <si>
+    <t>https://github.com/h2oai/h2ogpt</t>
+  </si>
+  <si>
+    <t>HuggingChat</t>
+  </si>
+  <si>
+    <t>Clement Delangue</t>
+  </si>
+  <si>
+    <t>OpenAssistant</t>
+  </si>
+  <si>
+    <t>Trainium, Bedrock, Infernium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0\x"/>
+    <numFmt numFmtId="165" formatCode="[$¥-411]#,##0"/>
   </numFmts>
-  <fonts count="67" x14ac:knownFonts="1">
+  <fonts count="83">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1721,13 +2273,40 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Ariai"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -1827,301 +2406,362 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="67" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="67" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="67" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="67" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="67" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="67" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="67" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="70" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="54" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="54" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="70" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="70" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="70" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="53" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="53" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="54" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="54" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="40" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="40" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="67" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="67" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="67" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="54" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="54" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="80" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="81" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="80" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="75" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2153,61 +2793,63 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="Legacy"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>7534</v>
+            <v>7473</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>114101</v>
+            <v>106605</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>48622</v>
+            <v>48116</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="26">
-          <cell r="Y26">
+        <row r="32">
+          <cell r="BE32">
             <v>9.6463099263974534</v>
           </cell>
-          <cell r="Z26">
-            <v>10.566483671729284</v>
-          </cell>
-          <cell r="AA26">
-            <v>11.887286441105783</v>
-          </cell>
-          <cell r="AB26">
-            <v>12.759216407385425</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="AJ28">
+          <cell r="BF32">
+            <v>9.8726994311717835</v>
+          </cell>
+          <cell r="BG32">
+            <v>11.225772564777602</v>
+          </cell>
+          <cell r="BH32">
+            <v>12.540877369501043</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="BP34">
             <v>0</v>
           </cell>
         </row>
-        <row r="29">
-          <cell r="AJ29">
+        <row r="35">
+          <cell r="BP35">
             <v>7.0000000000000007E-2</v>
           </cell>
         </row>
-        <row r="30">
-          <cell r="AJ30">
+        <row r="36">
+          <cell r="BP36">
             <v>0.01</v>
           </cell>
         </row>
-        <row r="32">
-          <cell r="AJ32">
-            <v>240.86292434566818</v>
+        <row r="39">
+          <cell r="BP39">
+            <v>269.58547667575527</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2278,6 +2920,9 @@
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
@@ -2309,6 +2954,9 @@
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
@@ -2512,7 +3160,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2563,24 +3211,53 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>12807</v>
+            <v>12947</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>146678</v>
+            <v>144254</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>14653</v>
+            <v>14701</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
+        <row r="24">
+          <cell r="AJ24">
+            <v>4.5799964361174039</v>
+          </cell>
+          <cell r="AK24">
+            <v>5.6080380594150139</v>
+          </cell>
+          <cell r="AL24">
+            <v>6.6491005248224839</v>
+          </cell>
+          <cell r="AM24">
+            <v>7.778431207897734</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="AU27">
+            <v>-0.01</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="AU28">
+            <v>0.08</v>
+          </cell>
+        </row>
         <row r="29">
-          <cell r="AQ29">
-            <v>0.10000000000000009</v>
+          <cell r="AU29">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="AU31">
+            <v>164.8676811657561</v>
           </cell>
         </row>
       </sheetData>
@@ -2779,6 +3456,9 @@
 <file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
@@ -2819,19 +3499,19 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="3">
-          <cell r="J3">
-            <v>782.62531899999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>10688</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>3610</v>
+        <row r="4">
+          <cell r="O4">
+            <v>1238.413</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="O7">
+            <v>1886413</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="O8">
+            <v>1455438</v>
           </cell>
         </row>
       </sheetData>
@@ -2844,6 +3524,9 @@
 <file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
@@ -2851,18 +3534,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>281</v>
+          <cell r="J3">
+            <v>782.62531899999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>2416</v>
+          <cell r="J5">
+            <v>10688</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>1878</v>
+          <cell r="J6">
+            <v>3610</v>
           </cell>
         </row>
       </sheetData>
@@ -2882,18 +3565,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>588.52099999999996</v>
+          <cell r="N3">
+            <v>281</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>3132.9639999999999</v>
+          <cell r="N5">
+            <v>2416</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>988.03399999999999</v>
+          <cell r="N6">
+            <v>1878</v>
           </cell>
         </row>
       </sheetData>
@@ -2906,6 +3589,9 @@
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
@@ -2919,12 +3605,12 @@
         </row>
         <row r="5">
           <cell r="O5">
-            <v>676</v>
+            <v>811</v>
           </cell>
         </row>
         <row r="6">
           <cell r="O6">
-            <v>1882</v>
+            <v>1974</v>
           </cell>
         </row>
       </sheetData>
@@ -2937,6 +3623,9 @@
 <file path=xl/externalLinks/externalLink30.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
@@ -2944,18 +3633,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>197.07725600000001</v>
+          <cell r="L3">
+            <v>605.13542000000007</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>4301</v>
+          <cell r="L5">
+            <v>2977</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>1146</v>
+          <cell r="L6">
+            <v>989</v>
           </cell>
         </row>
       </sheetData>
@@ -2970,23 +3659,23 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Models"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>281.86987900000003</v>
+          <cell r="K3">
+            <v>197.07725600000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>4002</v>
+          <cell r="K5">
+            <v>4301</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>6853</v>
+          <cell r="K6">
+            <v>1146</v>
           </cell>
         </row>
       </sheetData>
@@ -3001,23 +3690,23 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
+      <sheetName val="Models"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>2675.125</v>
+            <v>281.86987900000003</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>956062</v>
+            <v>4002</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>149153</v>
+            <v>6853</v>
           </cell>
         </row>
       </sheetData>
@@ -3037,18 +3726,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>1260</v>
+          <cell r="L3">
+            <v>2675.125</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>7246.6900000000005</v>
+          <cell r="L5">
+            <v>956062</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>911.54899999999998</v>
+          <cell r="L6">
+            <v>149153</v>
           </cell>
         </row>
       </sheetData>
@@ -3071,6 +3760,71 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
+          <cell r="L3">
+            <v>633.17718300000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>9629.1059999999998</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>1985.6590000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink35.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>1260</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>7246.6900000000005</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>911.54899999999998</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink36.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
           <cell r="K3">
             <v>108.748718</v>
           </cell>
@@ -3083,6 +3837,40 @@
         <row r="6">
           <cell r="K6">
             <v>1719</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink37.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>1144</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>15886</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>10417</v>
           </cell>
         </row>
       </sheetData>
@@ -3183,38 +3971,38 @@
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="34">
-          <cell r="BA34">
-            <v>0.15491793611792834</v>
-          </cell>
-          <cell r="BB34">
-            <v>2.206367139333532</v>
-          </cell>
-          <cell r="BC34">
-            <v>2.4325852213221908</v>
-          </cell>
-          <cell r="BD34">
-            <v>3.9987287268800702</v>
+        <row r="33">
+          <cell r="BA33">
+            <v>0.51665847665847664</v>
+          </cell>
+          <cell r="BB33">
+            <v>1.6399777191456466</v>
+          </cell>
+          <cell r="BC33">
+            <v>2.0086947796859072</v>
+          </cell>
+          <cell r="BD33">
+            <v>3.4976216660564408</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="BL44">
+            <v>0.08</v>
           </cell>
         </row>
         <row r="45">
           <cell r="BL45">
-            <v>0.08</v>
+            <v>0.01</v>
           </cell>
         </row>
         <row r="46">
           <cell r="BL46">
-            <v>0.01</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="BL47">
             <v>0</v>
           </cell>
         </row>
-        <row r="49">
-          <cell r="BL49">
-            <v>139.08156491053268</v>
+        <row r="48">
+          <cell r="BL48">
+            <v>127.46157686951391</v>
           </cell>
         </row>
       </sheetData>
@@ -3226,6 +4014,9 @@
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
@@ -3234,17 +4025,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="G3">
-            <v>2746</v>
+            <v>2776</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>7350</v>
+            <v>8769</v>
           </cell>
         </row>
         <row r="6">
           <cell r="G6">
-            <v>90919</v>
+            <v>91811</v>
           </cell>
         </row>
       </sheetData>
@@ -3307,6 +4098,9 @@
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
@@ -3644,36 +4438,1428 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDC990C-C1C5-4FE2-B554-717099EBE596}">
+  <dimension ref="A1:X28"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="10"/>
+    <col min="4" max="4" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="9.140625" style="10"/>
+    <col min="10" max="10" width="10.28515625" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="P2" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q2" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="R2" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="S2" s="19">
+        <v>2025</v>
+      </c>
+      <c r="T2" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="U2" s="18">
+        <v>2023</v>
+      </c>
+      <c r="V2" s="18">
+        <v>2024</v>
+      </c>
+      <c r="W2" s="19">
+        <v>2025</v>
+      </c>
+      <c r="X2" s="51" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="72" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="21">
+        <v>252</v>
+      </c>
+      <c r="E3" s="22">
+        <f>D3*[1]Main!$L$3</f>
+        <v>1883196</v>
+      </c>
+      <c r="F3" s="22">
+        <f>[1]Main!$L$5-[1]Main!$L$6</f>
+        <v>58489</v>
+      </c>
+      <c r="G3" s="22">
+        <f>+E3-F3</f>
+        <v>1824707</v>
+      </c>
+      <c r="H3" s="22">
+        <f>+[1]Main!$L$3</f>
+        <v>7473</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="72" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="21">
+        <v>391.4</v>
+      </c>
+      <c r="E4" s="22">
+        <f>+D4*[19]Main!$L$3*1000/HKD</f>
+        <v>482256.9746999924</v>
+      </c>
+      <c r="F4" s="22">
+        <f>([19]Main!$L$5-[19]Main!$L$6)/HKD*1000</f>
+        <v>81912.914978725574</v>
+      </c>
+      <c r="G4" s="22">
+        <f>+E4-F4</f>
+        <v>400344.05972126685</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="20" customFormat="1">
+      <c r="A5" s="82" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="21">
+        <v>309.18</v>
+      </c>
+      <c r="E5" s="22">
+        <f>+D5*[26]Main!$N$3</f>
+        <v>146087.55000000002</v>
+      </c>
+      <c r="F5" s="22">
+        <f>+[26]Main!$N$5-[26]Main!$N$6</f>
+        <v>1173</v>
+      </c>
+      <c r="G5" s="22">
+        <f t="shared" ref="G5:G7" si="0">+E5-F5</f>
+        <v>144914.55000000002</v>
+      </c>
+      <c r="H5" s="22">
+        <f>+[26]Main!$N$3</f>
+        <v>472.5</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="J5" s="43">
+        <v>44823</v>
+      </c>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="20">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="20" customFormat="1">
+      <c r="A6" s="82" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="82" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="155">
+        <v>12025</v>
+      </c>
+      <c r="E6" s="22">
+        <f>D6*H6/JPY</f>
+        <v>108755.68776016941</v>
+      </c>
+      <c r="F6" s="22">
+        <f>([27]Main!$O$7-[27]Main!$O$8)/JPY</f>
+        <v>3147.411085956328</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" si="0"/>
+        <v>105608.27667421309</v>
+      </c>
+      <c r="H6" s="22">
+        <f>[27]Main!$O$4</f>
+        <v>1238.413</v>
+      </c>
+      <c r="I6" s="156" t="s">
+        <v>392</v>
+      </c>
+      <c r="J6" s="43">
+        <v>44994</v>
+      </c>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+    </row>
+    <row r="7" spans="1:24" s="20" customFormat="1">
+      <c r="A7" s="154" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="154" t="s">
+        <v>393</v>
+      </c>
+      <c r="D7" s="21">
+        <v>87.8</v>
+      </c>
+      <c r="E7" s="22">
+        <f>D7*H7</f>
+        <v>108732.6614</v>
+      </c>
+      <c r="F7" s="22">
+        <f>([27]Main!$O$7-[27]Main!$O$8)/JPY</f>
+        <v>3147.411085956328</v>
+      </c>
+      <c r="G7" s="22">
+        <f t="shared" si="0"/>
+        <v>105585.25031404367</v>
+      </c>
+      <c r="H7" s="22">
+        <f>[27]Main!$O$4</f>
+        <v>1238.413</v>
+      </c>
+      <c r="I7" s="156" t="s">
+        <v>392</v>
+      </c>
+      <c r="J7" s="43">
+        <v>44994</v>
+      </c>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+    </row>
+    <row r="8" spans="1:24" s="20" customFormat="1">
+      <c r="A8" s="85" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" s="85" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="87" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="10">
+        <v>73.88</v>
+      </c>
+      <c r="E9" s="52">
+        <f>+D9*H9</f>
+        <v>57820.358567719995</v>
+      </c>
+      <c r="F9" s="52">
+        <f>+[28]Main!$J$5-[28]Main!$J$6</f>
+        <v>7078</v>
+      </c>
+      <c r="G9" s="22">
+        <f t="shared" ref="G9" si="1">+E9-F9</f>
+        <v>50742.358567719995</v>
+      </c>
+      <c r="H9" s="52">
+        <f>+[28]Main!$J$3</f>
+        <v>782.62531899999999</v>
+      </c>
+      <c r="I9" s="145" t="s">
+        <v>361</v>
+      </c>
+      <c r="J9" s="67">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="87" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="52">
+        <v>59910</v>
+      </c>
+      <c r="E10" s="52" cm="1">
+        <f t="array" ref="E10">6975000/JPY</f>
+        <v>50938.435697071494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="88" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" s="88" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>278</v>
+      </c>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="98" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="98" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="98" t="s">
+        <v>296</v>
+      </c>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="98" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="10">
+        <v>130.47999999999999</v>
+      </c>
+      <c r="E13" s="52">
+        <f>+D13*H13</f>
+        <v>36664.879999999997</v>
+      </c>
+      <c r="F13" s="52">
+        <f>+[29]Main!$N$5-[29]Main!$N$6</f>
+        <v>538</v>
+      </c>
+      <c r="G13" s="52">
+        <f>+E13-F13</f>
+        <v>36126.879999999997</v>
+      </c>
+      <c r="H13" s="10">
+        <f>+[29]Main!$N$3</f>
+        <v>281</v>
+      </c>
+      <c r="I13" s="66" t="s">
+        <v>210</v>
+      </c>
+      <c r="J13" s="67">
+        <v>44799</v>
+      </c>
+      <c r="X13" s="10">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="1" customFormat="1">
+      <c r="A14" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="2">
+        <v>37.76</v>
+      </c>
+      <c r="E14" s="3">
+        <f>D14*H14</f>
+        <v>22849.913459200001</v>
+      </c>
+      <c r="F14" s="3">
+        <f>[30]Main!$L$5-[30]Main!$L$6</f>
+        <v>1988</v>
+      </c>
+      <c r="G14" s="3">
+        <f>+E14-F14</f>
+        <v>20861.913459200001</v>
+      </c>
+      <c r="H14" s="3">
+        <f>[30]Main!$L$3</f>
+        <v>605.13542000000007</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="J14" s="153">
+        <v>44987</v>
+      </c>
+      <c r="X14" s="1">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="1" customFormat="1">
+      <c r="A15" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" s="137" t="s">
+        <v>342</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="B16" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="10">
+        <v>127.74</v>
+      </c>
+      <c r="E16" s="52">
+        <v>21290</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" s="1" customFormat="1">
+      <c r="B17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="2">
+        <v>45.8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>14330</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="2:23" s="1" customFormat="1">
+      <c r="B18" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="2:23" s="20" customFormat="1">
+      <c r="B19" s="114" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="21">
+        <v>102.23</v>
+      </c>
+      <c r="E19" s="22">
+        <f>+D19*[31]Main!$K$3</f>
+        <v>20147.20788088</v>
+      </c>
+      <c r="F19" s="22">
+        <f>+[31]Main!$K$5-[31]Main!$K$6</f>
+        <v>3155</v>
+      </c>
+      <c r="G19" s="22">
+        <f>E19-F19</f>
+        <v>16992.20788088</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="26"/>
+    </row>
+    <row r="20" spans="2:23" s="20" customFormat="1">
+      <c r="B20" s="65" t="s">
+        <v>260</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+    </row>
+    <row r="21" spans="2:23" s="20" customFormat="1">
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+    </row>
+    <row r="22" spans="2:23" s="20" customFormat="1">
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+    </row>
+    <row r="23" spans="2:23" s="20" customFormat="1">
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+    </row>
+    <row r="24" spans="2:23">
+      <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3">
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" s="20" customFormat="1">
+      <c r="B25" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22">
+        <v>27000</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+    </row>
+    <row r="26" spans="2:23" s="20" customFormat="1">
+      <c r="B26" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22">
+        <v>10000</v>
+      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+    </row>
+    <row r="27" spans="2:23">
+      <c r="B27" s="63" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23">
+      <c r="B28" s="166" t="s">
+        <v>490</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{B2E999A0-B9C6-426F-B868-4B47C66D3C76}"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{4D4AAA00-BFE8-4498-9D01-136889AF20D4}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{3976EBF1-944B-4446-8A82-A83B8F045357}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{F038AE55-03C6-4C11-AB9A-E55BDED9EAEB}"/>
+    <hyperlink ref="B13" r:id="rId4" xr:uid="{7C332E55-E10B-4AF1-A314-5F96A0E9060B}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{D15C9016-D909-4B61-8E61-89DF546A9452}"/>
+    <hyperlink ref="B19" r:id="rId6" xr:uid="{B43B07AD-918B-4E3C-B6FF-2D0A1726D08C}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{54D233D9-C949-4228-9F3B-6F4618FC7C4C}"/>
+    <hyperlink ref="B6" r:id="rId8" xr:uid="{C317DCAB-F486-4C03-A390-844EB230A084}"/>
+    <hyperlink ref="B7" r:id="rId9" xr:uid="{B27274A8-24B6-4DB9-826D-7802A0C1EEB1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E275841C-1187-4786-8CDA-18459BF1140B}">
+  <dimension ref="A1:X35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="9.140625" style="68"/>
+    <col min="10" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="P2" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q2" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="R2" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="S2" s="19">
+        <v>2025</v>
+      </c>
+      <c r="T2" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="U2" s="18">
+        <v>2023</v>
+      </c>
+      <c r="V2" s="18">
+        <v>2024</v>
+      </c>
+      <c r="W2" s="19">
+        <v>2025</v>
+      </c>
+      <c r="X2" s="51" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="52" customFormat="1">
+      <c r="A3" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="69">
+        <v>206.8</v>
+      </c>
+      <c r="E3" s="70">
+        <v>427830</v>
+      </c>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+    </row>
+    <row r="4" spans="1:24" s="52" customFormat="1">
+      <c r="A4" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="112" t="s">
+        <v>325</v>
+      </c>
+      <c r="D4" s="69">
+        <v>340.89</v>
+      </c>
+      <c r="E4" s="70">
+        <v>329430</v>
+      </c>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+    </row>
+    <row r="5" spans="1:24" s="52" customFormat="1">
+      <c r="A5" s="83" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="83" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+    </row>
+    <row r="6" spans="1:24" s="52" customFormat="1">
+      <c r="A6" s="84" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" s="84" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+    </row>
+    <row r="7" spans="1:24" s="20" customFormat="1">
+      <c r="A7" s="82" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="143" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="21">
+        <v>413.72</v>
+      </c>
+      <c r="E7" s="22">
+        <f>+D7*H7</f>
+        <v>116615.20633988002</v>
+      </c>
+      <c r="F7" s="22">
+        <f>[32]Main!$L$5-[32]Main!$L$6</f>
+        <v>-2851</v>
+      </c>
+      <c r="G7" s="22">
+        <f>E7-F7</f>
+        <v>119466.20633988002</v>
+      </c>
+      <c r="H7" s="22">
+        <f>+[32]Main!$L$3</f>
+        <v>281.86987900000003</v>
+      </c>
+      <c r="I7" s="132" t="s">
+        <v>210</v>
+      </c>
+      <c r="J7" s="43">
+        <v>44830</v>
+      </c>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="20">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="52" customFormat="1">
+      <c r="A8" s="84" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" s="187" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="60">
+        <v>71.81</v>
+      </c>
+      <c r="E8" s="3">
+        <f>D8*H8</f>
+        <v>82150.64</v>
+      </c>
+      <c r="F8" s="70">
+        <f>[37]Main!$M$5-[37]Main!$M$6</f>
+        <v>5469</v>
+      </c>
+      <c r="G8" s="22">
+        <f>E8-F8</f>
+        <v>76681.64</v>
+      </c>
+      <c r="H8" s="70">
+        <f>[37]Main!$M$3</f>
+        <v>1144</v>
+      </c>
+      <c r="I8" s="188" t="s">
+        <v>392</v>
+      </c>
+      <c r="J8" s="43">
+        <v>45069</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="87" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="87" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="88" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" s="88" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="52" customFormat="1">
+      <c r="A11" s="91" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="69">
+        <v>70.94</v>
+      </c>
+      <c r="E11" s="70">
+        <v>41870</v>
+      </c>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+    </row>
+    <row r="12" spans="1:24" s="52" customFormat="1">
+      <c r="A12" s="91" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="91" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>282</v>
+      </c>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+    </row>
+    <row r="13" spans="1:24" s="52" customFormat="1">
+      <c r="A13" s="93" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="93" t="s">
+        <v>283</v>
+      </c>
+      <c r="C13" s="93" t="s">
+        <v>284</v>
+      </c>
+      <c r="D13" s="69"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+    </row>
+    <row r="14" spans="1:24" s="52" customFormat="1">
+      <c r="A14" s="99" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14" s="99" t="s">
+        <v>299</v>
+      </c>
+      <c r="C14" s="99" t="s">
+        <v>299</v>
+      </c>
+      <c r="D14" s="69"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+    </row>
+    <row r="15" spans="1:24" s="52" customFormat="1">
+      <c r="A15" s="99" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" s="99" t="s">
+        <v>300</v>
+      </c>
+      <c r="C15" s="99" t="s">
+        <v>301</v>
+      </c>
+      <c r="D15" s="69"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+    </row>
+    <row r="16" spans="1:24" s="52" customFormat="1">
+      <c r="A16" s="104" t="s">
+        <v>263</v>
+      </c>
+      <c r="B16" s="104" t="s">
+        <v>304</v>
+      </c>
+      <c r="C16" s="104" t="s">
+        <v>305</v>
+      </c>
+      <c r="D16" s="69"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+    </row>
+    <row r="17" spans="1:23" s="52" customFormat="1">
+      <c r="A17" s="106" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17" s="106" t="s">
+        <v>307</v>
+      </c>
+      <c r="C17" s="106" t="s">
+        <v>308</v>
+      </c>
+      <c r="D17" s="69"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+    </row>
+    <row r="18" spans="1:23" s="52" customFormat="1">
+      <c r="A18" s="109" t="s">
+        <v>263</v>
+      </c>
+      <c r="B18" s="109" t="s">
+        <v>317</v>
+      </c>
+      <c r="C18" s="109" t="s">
+        <v>318</v>
+      </c>
+      <c r="D18" s="69"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+    </row>
+    <row r="19" spans="1:23" s="52" customFormat="1">
+      <c r="B19" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="60">
+        <v>68.930000000000007</v>
+      </c>
+      <c r="E19" s="3">
+        <v>18053</v>
+      </c>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+    </row>
+    <row r="20" spans="1:23" s="52" customFormat="1">
+      <c r="B20" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="69">
+        <v>58.75</v>
+      </c>
+      <c r="E20" s="70">
+        <v>14980</v>
+      </c>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+    </row>
+    <row r="21" spans="1:23" s="52" customFormat="1">
+      <c r="B21" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="60">
+        <v>184.44</v>
+      </c>
+      <c r="E21" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+    </row>
+    <row r="22" spans="1:23" s="20" customFormat="1">
+      <c r="A22" s="108" t="s">
+        <v>263</v>
+      </c>
+      <c r="B22" s="117" t="s">
+        <v>311</v>
+      </c>
+      <c r="C22" s="108" t="s">
+        <v>312</v>
+      </c>
+      <c r="D22" s="21">
+        <v>175.2</v>
+      </c>
+      <c r="E22" s="22">
+        <v>27500</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="26"/>
+    </row>
+    <row r="27" spans="1:23" s="52" customFormat="1">
+      <c r="B27" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="61">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9">
+        <v>100000</v>
+      </c>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="B28" s="167" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="167"/>
+      <c r="D28" s="168">
+        <v>0</v>
+      </c>
+      <c r="E28" s="169">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="B29" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="57"/>
+      <c r="D29" s="61">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="B30" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="D30" s="61">
+        <v>0</v>
+      </c>
+      <c r="E30" s="68">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="B31" s="62" t="s">
+        <v>254</v>
+      </c>
+      <c r="D31" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="B32" s="94" t="s">
+        <v>285</v>
+      </c>
+      <c r="E32" s="68">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="94" t="s">
+        <v>287</v>
+      </c>
+      <c r="E33" s="68">
+        <v>159.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="166" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="166"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A1A6C7BE-B827-4E66-8B30-A4C4FF1A4224}"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{B2FAC7EC-CB56-42A3-96CC-14E909698321}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{B88BB985-A6BE-418A-A3AF-D32B8C4FDEDC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569EF4EB-ECD2-418F-8A42-9502B535E912}">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="10" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24">
       <c r="A1" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="72" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="72" customFormat="1">
       <c r="B2" s="73" t="s">
         <v>0</v>
       </c>
@@ -3744,7 +5930,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="A3" s="72" t="s">
         <v>263</v>
       </c>
@@ -3780,7 +5966,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" s="20" customFormat="1">
       <c r="A4" s="72" t="s">
         <v>263</v>
       </c>
@@ -3794,11 +5980,11 @@
         <v>115.9</v>
       </c>
       <c r="E4" s="22">
-        <f>D4*[32]Main!$L$3</f>
+        <f>D4*[33]Main!$L$3</f>
         <v>310046.98749999999</v>
       </c>
       <c r="F4" s="22" cm="1">
-        <f t="array" ref="F4">([32]Main!$L$5-[32]Main!$L$6)/RMB</f>
+        <f t="array" ref="F4">([33]Main!$L$5-[33]Main!$L$6)/RMB</f>
         <v>119719.43620178041</v>
       </c>
       <c r="G4" s="22">
@@ -3824,7 +6010,7 @@
       <c r="V4" s="24"/>
       <c r="W4" s="26"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" s="72" t="s">
         <v>263</v>
       </c>
@@ -3838,11 +6024,11 @@
         <v>115.9</v>
       </c>
       <c r="E5" s="3">
-        <f>D5*[32]Main!$L$3</f>
+        <f>D5*[33]Main!$L$3</f>
         <v>310046.98749999999</v>
       </c>
       <c r="F5" s="3" cm="1">
-        <f t="array" ref="F5">([32]Main!$L$5-[32]Main!$L$6)/RMB</f>
+        <f t="array" ref="F5">([33]Main!$L$5-[33]Main!$L$6)/RMB</f>
         <v>119719.43620178041</v>
       </c>
       <c r="G5" s="3">
@@ -3853,7 +6039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24">
       <c r="A6" s="82" t="s">
         <v>263</v>
       </c>
@@ -3870,7 +6056,7 @@
         <v>101795</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24">
       <c r="A7" s="82" t="s">
         <v>263</v>
       </c>
@@ -3881,7 +6067,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24">
       <c r="A8" s="86" t="s">
         <v>263</v>
       </c>
@@ -3892,126 +6078,151 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="86" t="s">
+    <row r="9" spans="1:24">
+      <c r="A9" s="87" t="s">
         <v>263</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="10">
+        <v>116.42</v>
+      </c>
+      <c r="E9" s="52">
+        <f>+D9*H9</f>
+        <v>73714.487644859997</v>
+      </c>
+      <c r="F9" s="52">
+        <f>+[34]Main!$L$5-[34]Main!$L$6</f>
+        <v>7643.4470000000001</v>
+      </c>
+      <c r="G9" s="22">
+        <f>E9-F9</f>
+        <v>66071.040644859997</v>
+      </c>
+      <c r="H9" s="52">
+        <f>+[34]Main!$L$3</f>
+        <v>633.17718300000001</v>
+      </c>
+      <c r="I9" s="152" t="s">
+        <v>361</v>
+      </c>
+      <c r="J9" s="67">
+        <v>44971</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="86" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="98" t="s">
+    <row r="11" spans="1:24">
+      <c r="A11" s="98" t="s">
         <v>263</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B11" s="98" t="s">
         <v>295</v>
       </c>
-      <c r="C10" s="98" t="s">
+      <c r="C11" s="98" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="96" t="s">
+    <row r="12" spans="1:24">
+      <c r="A12" s="96" t="s">
         <v>263</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="98" t="s">
-        <v>263</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="21">
-        <v>36.71</v>
-      </c>
-      <c r="E12" s="22">
-        <f>+D12*[33]Main!$M$3</f>
-        <v>46254.6</v>
-      </c>
-      <c r="F12" s="22">
-        <f>+[33]Main!$M$5-[33]Main!$M$6</f>
-        <v>6335.1410000000005</v>
-      </c>
-      <c r="G12" s="22">
-        <f t="shared" ref="G12" si="0">E12-F12</f>
-        <v>39919.458999999995</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="26"/>
-    </row>
-    <row r="13" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" s="20" customFormat="1">
       <c r="A13" s="98" t="s">
         <v>263</v>
       </c>
-      <c r="B13" s="98" t="s">
-        <v>297</v>
-      </c>
-      <c r="C13" s="98" t="s">
-        <v>298</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="21">
+        <v>36.71</v>
+      </c>
+      <c r="E13" s="22">
+        <f>+D13*[35]Main!$M$3</f>
+        <v>46254.6</v>
+      </c>
+      <c r="F13" s="22">
+        <f>+[35]Main!$M$5-[35]Main!$M$6</f>
+        <v>6335.1410000000005</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" ref="G13" si="0">E13-F13</f>
+        <v>39919.458999999995</v>
+      </c>
       <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
+      <c r="I13" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="J13" s="23"/>
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
+      <c r="P13" s="25"/>
       <c r="Q13" s="24"/>
       <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="25"/>
       <c r="U13" s="24"/>
       <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="87" t="s">
+      <c r="W13" s="26"/>
+    </row>
+    <row r="14" spans="1:24" s="20" customFormat="1">
+      <c r="A14" s="98" t="s">
         <v>263</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="98" t="s">
+        <v>297</v>
+      </c>
+      <c r="C14" s="98" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="108" t="s">
         <v>263</v>
       </c>
@@ -4028,7 +6239,7 @@
         <v>25171</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24">
       <c r="A16" s="108" t="s">
         <v>263</v>
       </c>
@@ -4039,7 +6250,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23">
       <c r="A17" s="108" t="s">
         <v>263</v>
       </c>
@@ -4050,7 +6261,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23">
       <c r="A18" s="110" t="s">
         <v>263</v>
       </c>
@@ -4061,7 +6272,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23">
       <c r="A19" s="111" t="s">
         <v>263</v>
       </c>
@@ -4072,8 +6283,8 @@
         <v>322</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="136" t="s">
+    <row r="20" spans="1:23">
+      <c r="A20" s="135" t="s">
         <v>263</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -4083,7 +6294,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23">
       <c r="B21" s="1" t="s">
         <v>98</v>
       </c>
@@ -4097,7 +6308,7 @@
         <v>12580</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23">
       <c r="B22" s="10" t="s">
         <v>165</v>
       </c>
@@ -4105,7 +6316,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" s="20" customFormat="1">
       <c r="B23" s="20" t="s">
         <v>137</v>
       </c>
@@ -4137,12 +6348,12 @@
       <c r="V23" s="24"/>
       <c r="W23" s="26"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23">
       <c r="B24" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C24" s="147" t="s">
         <v>390</v>
-      </c>
-      <c r="C24" s="149" t="s">
-        <v>391</v>
       </c>
       <c r="D24" s="10">
         <v>8.86</v>
@@ -4152,7 +6363,7 @@
         <v>963.51364147999993</v>
       </c>
       <c r="F24" s="52">
-        <f>+[34]Main!$K$5-[34]Main!$K$6</f>
+        <f>+[36]Main!$K$5-[36]Main!$K$6</f>
         <v>-1163.2909999999999</v>
       </c>
       <c r="G24" s="52">
@@ -4160,22 +6371,22 @@
         <v>2126.8046414800001</v>
       </c>
       <c r="H24" s="52">
-        <f>+[34]Main!$K$3</f>
+        <f>+[36]Main!$K$3</f>
         <v>108.748718</v>
       </c>
-      <c r="I24" s="153" t="s">
-        <v>362</v>
+      <c r="I24" s="151" t="s">
+        <v>361</v>
       </c>
       <c r="J24" s="67">
         <v>44965</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B25" s="152" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23">
+      <c r="B25" s="150" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="B29" s="1" t="s">
         <v>121</v>
       </c>
@@ -4185,7 +6396,7 @@
         <v>8333</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23">
       <c r="B30" s="20" t="s">
         <v>64</v>
       </c>
@@ -4195,7 +6406,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23">
       <c r="B31" s="20" t="s">
         <v>55</v>
       </c>
@@ -4210,39 +6421,40 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{5E6A4119-6CB3-4DE8-85D8-71624588AB5F}"/>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{1DBE1AD0-E144-4B11-A369-C38208461D50}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{9E979F32-3FB9-4155-8C38-6368365757C8}"/>
-    <hyperlink ref="B12" r:id="rId3" xr:uid="{7B3BF246-9F57-4E65-999A-345E6DC43A15}"/>
+    <hyperlink ref="B13" r:id="rId3" xr:uid="{7B3BF246-9F57-4E65-999A-345E6DC43A15}"/>
     <hyperlink ref="B4" r:id="rId4" xr:uid="{EBAD1208-6B7E-4686-85C8-90DFDB7B9D36}"/>
     <hyperlink ref="B24" r:id="rId5" xr:uid="{E112D5EE-DF74-4C8E-8A8A-40FA1E1DA6A2}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{0E4A8717-CB7F-480C-A1D1-B315F728D1CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2707CF4-895A-4CDE-92B2-BF34D258BE21}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
@@ -4256,7 +6468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="89" t="s">
         <v>263</v>
       </c>
@@ -4267,7 +6479,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="90" t="s">
         <v>263</v>
       </c>
@@ -4278,7 +6490,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="92" t="s">
         <v>263</v>
       </c>
@@ -4289,7 +6501,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="101" t="s">
         <v>263</v>
       </c>
@@ -4300,7 +6512,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="1" customFormat="1">
       <c r="B7" s="1" t="s">
         <v>81</v>
       </c>
@@ -4317,7 +6529,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="B8" s="10" t="s">
         <v>199</v>
       </c>
@@ -4326,29 +6538,32 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{8911E9A3-ACF0-4B55-98BB-1EFB77BE02DE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E750321-4AE5-45B4-8FB8-F8D64CF71E0E}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="45" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="45" t="s">
         <v>152</v>
       </c>
@@ -4356,7 +6571,7 @@
         <v>7.8498000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" s="45" t="s">
         <v>153</v>
       </c>
@@ -4364,7 +6579,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4" s="45" t="s">
         <v>217</v>
       </c>
@@ -4372,7 +6587,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5" s="45" t="s">
         <v>235</v>
       </c>
@@ -4380,7 +6595,7 @@
         <v>10.3437</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="B6" s="46" t="s">
         <v>243</v>
       </c>
@@ -4388,7 +6603,7 @@
         <v>136.93</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="B7" s="46" t="s">
         <v>244</v>
       </c>
@@ -4405,18 +6620,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC5831F-FB2E-134D-9E1A-7188BFBB74B9}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" style="6" bestFit="1" customWidth="1"/>
@@ -4424,12 +6639,12 @@
     <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -4449,7 +6664,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="B3" s="8" t="s">
         <v>33</v>
       </c>
@@ -4460,7 +6675,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="B4" s="6" t="s">
         <v>87</v>
       </c>
@@ -4471,7 +6686,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="B5" s="6" t="s">
         <v>126</v>
       </c>
@@ -4482,7 +6697,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="B6" s="6" t="s">
         <v>146</v>
       </c>
@@ -4490,7 +6705,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="B7" s="6" t="s">
         <v>147</v>
       </c>
@@ -4498,7 +6713,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="B8" s="12" t="s">
         <v>211</v>
       </c>
@@ -4506,7 +6721,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="B9" s="46" t="s">
         <v>245</v>
       </c>
@@ -4523,7 +6738,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="B10" s="53" t="s">
         <v>248</v>
       </c>
@@ -4535,6 +6750,14 @@
       </c>
       <c r="G10" s="53" t="s">
         <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="163" t="s">
+        <v>401</v>
+      </c>
+      <c r="D11" s="163" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -4554,77 +6777,77 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5" style="139" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="139"/>
+    <col min="1" max="1" width="5" style="138" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="138"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="5"/>
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="138" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="139" t="s">
+    <row r="3" spans="1:3">
+      <c r="B3" s="138" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" s="138" t="s">
         <v>350</v>
       </c>
-      <c r="C3" s="139" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="138" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="139" t="s">
+      <c r="C4" s="138" t="s">
         <v>352</v>
       </c>
-      <c r="C4" s="139" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="138" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="139" t="s">
+    <row r="6" spans="1:3">
+      <c r="B6" s="138" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="138" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="138" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="138" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="138" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="139" t="s">
+    <row r="11" spans="1:3">
+      <c r="B11" s="138" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="138" t="s">
         <v>347</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="139" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="139" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="139" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="139" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="139" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="139" t="s">
-        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -4638,45 +6861,103 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57D91D0-A718-45C3-9EF2-C01D7940E5D3}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5" style="139" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="139"/>
+    <col min="1" max="1" width="5" style="138" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="138" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="138"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="5"/>
-      <c r="B2" s="139" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="139" t="s">
+      <c r="B2" s="177" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="177" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="177" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="177" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="177" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="177" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="177"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="177"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="138" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="138" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="138" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="139" t="s">
+      <c r="C12" s="138" t="s">
         <v>358</v>
       </c>
-      <c r="C4" s="139" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="138" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="139" t="s">
-        <v>360</v>
+    <row r="14" spans="1:3">
+      <c r="B14" s="173" t="s">
+        <v>499</v>
+      </c>
+      <c r="C14" s="173" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="173" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -4691,14 +6972,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE865A7-531A-484D-A1B8-5616406C41D1}">
   <dimension ref="A2:X59"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.5703125" style="20" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="20" customWidth="1"/>
@@ -4716,29 +6997,29 @@
     <col min="24" max="16384" width="8.5703125" style="20"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24">
       <c r="L2" s="28">
         <f>AVERAGE(L4:L5)</f>
-        <v>-4.4194744660046914E-2</v>
+        <v>0.20041740331883851</v>
       </c>
       <c r="P2" s="29">
         <f>AVERAGE(P4:P5)</f>
-        <v>25.22299908757552</v>
+        <v>26.242629111540076</v>
       </c>
       <c r="Q2" s="37">
         <f>AVERAGE(Q4:Q5)</f>
-        <v>23.026474466900336</v>
+        <v>23.921213842707509</v>
       </c>
       <c r="R2" s="37">
         <f>AVERAGE(R4:R5)</f>
-        <v>20.46799054413637</v>
+        <v>20.722347204381379</v>
       </c>
       <c r="S2" s="30">
         <f>AVERAGE(S4:S5)</f>
-        <v>19.069264028718802</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+        <v>18.251491495442547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
@@ -4809,208 +7090,244 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24">
       <c r="A4" s="72" t="s">
         <v>263</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="114" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="21">
-        <v>252</v>
+        <v>307.26</v>
       </c>
       <c r="E4" s="22">
         <f>D4*[1]Main!$L$3</f>
-        <v>1898568</v>
+        <v>2296153.98</v>
       </c>
       <c r="F4" s="22">
         <f>[1]Main!$L$5-[1]Main!$L$6</f>
-        <v>65479</v>
+        <v>58489</v>
       </c>
       <c r="G4" s="22">
         <f>+E4-F4</f>
-        <v>1833089</v>
+        <v>2237664.98</v>
       </c>
       <c r="H4" s="22">
         <f>+[1]Main!$L$3</f>
-        <v>7534</v>
-      </c>
-      <c r="I4" s="146" t="s">
-        <v>362</v>
-      </c>
-      <c r="J4" s="43">
-        <v>44938</v>
+        <v>7473</v>
+      </c>
+      <c r="I4" s="176" t="s">
+        <v>502</v>
+      </c>
+      <c r="J4" s="170">
+        <v>45041</v>
       </c>
       <c r="K4" s="27">
-        <f>+[1]Model!$AJ$32</f>
-        <v>240.86292434566818</v>
+        <f>+[1]Model!$BP$39</f>
+        <v>269.58547667575527</v>
       </c>
       <c r="L4" s="28">
         <f>K4/D4-1</f>
-        <v>-4.4194744660046914E-2</v>
+        <v>-0.12261447413996196</v>
       </c>
       <c r="M4" s="28">
-        <f>+[1]Model!$AJ$29</f>
+        <f>+[1]Model!$BP$35</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N4" s="28">
-        <f>+[1]Model!$AJ$28</f>
+        <f>+[1]Model!$BP$34</f>
         <v>0</v>
       </c>
-      <c r="O4" s="116">
-        <f>+[1]Model!$AJ$30</f>
+      <c r="O4" s="115">
+        <f>+[1]Model!$BP$36</f>
         <v>0.01</v>
       </c>
       <c r="P4" s="29">
         <f>+$G$4/$H$4/T4</f>
-        <v>25.22299908757552</v>
+        <v>31.041226416860436</v>
       </c>
       <c r="Q4" s="30">
         <f t="shared" ref="Q4:S4" si="0">+$G$4/$H$4/U4</f>
-        <v>23.026474466900336</v>
+        <v>30.329424348429917</v>
       </c>
       <c r="R4" s="30">
         <f t="shared" si="0"/>
-        <v>20.46799054413637</v>
+        <v>26.673735708135101</v>
       </c>
       <c r="S4" s="31">
         <f t="shared" si="0"/>
-        <v>19.069264028718802</v>
+        <v>23.876582290862881</v>
       </c>
       <c r="T4" s="32">
-        <f>+[1]Model!$Y$26</f>
+        <f>+[1]Model!$BE$32</f>
         <v>9.6463099263974534</v>
       </c>
       <c r="U4" s="27">
-        <f>+[1]Model!$Z$26</f>
-        <v>10.566483671729284</v>
+        <f>+[1]Model!$BF$32</f>
+        <v>9.8726994311717835</v>
       </c>
       <c r="V4" s="27">
-        <f>+[1]Model!$AA$26</f>
-        <v>11.887286441105783</v>
+        <f>+[1]Model!$BG$32</f>
+        <v>11.225772564777602</v>
       </c>
       <c r="W4" s="33">
-        <f>+[1]Model!$AB$26</f>
-        <v>12.759216407385425</v>
+        <f>+[1]Model!$BH$32</f>
+        <v>12.540877369501043</v>
       </c>
       <c r="X4" s="20">
         <v>1975</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" s="72" t="s">
         <v>263</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="114" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="21">
-        <v>99.6</v>
+        <v>108.22</v>
       </c>
       <c r="E5" s="22">
         <f>D5*[2]Main!$L$3</f>
-        <v>1275577.2</v>
+        <v>1401124.34</v>
       </c>
       <c r="F5" s="22">
         <f>[2]Main!$L$5-[2]Main!$L$6</f>
-        <v>132025</v>
+        <v>129553</v>
       </c>
       <c r="G5" s="22">
         <f>+E5-F5</f>
-        <v>1143552.2</v>
+        <v>1271571.3400000001</v>
       </c>
       <c r="H5" s="22">
         <f>[2]Main!$L$3</f>
-        <v>12807</v>
-      </c>
-      <c r="I5" s="146" t="s">
-        <v>362</v>
+        <v>12947</v>
+      </c>
+      <c r="I5" s="176" t="s">
+        <v>502</v>
       </c>
       <c r="J5" s="43">
-        <v>44938</v>
-      </c>
-      <c r="K5" s="27"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="116">
-        <f>+[2]Model!$AQ$29</f>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="33"/>
+        <v>45041</v>
+      </c>
+      <c r="K5" s="27">
+        <f>[2]Model!$AU$31</f>
+        <v>164.8676811657561</v>
+      </c>
+      <c r="L5" s="28">
+        <f>K5/D5-1</f>
+        <v>0.52344928077763897</v>
+      </c>
+      <c r="M5" s="28">
+        <f>[2]Model!$AU$28</f>
+        <v>0.08</v>
+      </c>
+      <c r="N5" s="28">
+        <f>[2]Model!$AU$27</f>
+        <v>-0.01</v>
+      </c>
+      <c r="O5" s="115">
+        <f>[2]Model!$AU$29</f>
+        <v>0.01</v>
+      </c>
+      <c r="P5" s="29">
+        <f>+$G$5/$H$5/T5</f>
+        <v>21.444031806219719</v>
+      </c>
+      <c r="Q5" s="30">
+        <f>+$G$5/$H$5/U5</f>
+        <v>17.513003336985097</v>
+      </c>
+      <c r="R5" s="30">
+        <f>+$G$5/$H$5/V5</f>
+        <v>14.770958700627652</v>
+      </c>
+      <c r="S5" s="30">
+        <f>+$G$5/$H$5/W5</f>
+        <v>12.626400700022211</v>
+      </c>
+      <c r="T5" s="32">
+        <f>[2]Model!$AJ$24</f>
+        <v>4.5799964361174039</v>
+      </c>
+      <c r="U5" s="27">
+        <f>[2]Model!$AK$24</f>
+        <v>5.6080380594150139</v>
+      </c>
+      <c r="V5" s="27">
+        <f>[2]Model!$AL$24</f>
+        <v>6.6491005248224839</v>
+      </c>
+      <c r="W5" s="33">
+        <f>[2]Model!$AM$24</f>
+        <v>7.778431207897734</v>
+      </c>
       <c r="X5" s="20">
         <v>1998</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24">
       <c r="A6" s="107" t="s">
         <v>263</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="114" t="s">
         <v>182</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="21">
-        <v>2189.48</v>
+      <c r="D6" s="41">
+        <v>2651</v>
       </c>
       <c r="E6" s="22">
         <f>D6*H6/CAD</f>
-        <v>35713.078128386704</v>
+        <v>43241.029887623161</v>
       </c>
       <c r="F6" s="22">
         <f>[3]Main!$O$5-[3]Main!$O$6</f>
-        <v>-1206</v>
+        <v>-1163</v>
       </c>
       <c r="G6" s="22">
         <f>E6-F6</f>
-        <v>36919.078128386704</v>
+        <v>44404.029887623161</v>
       </c>
       <c r="H6" s="22">
         <f>+[3]Main!$O$3</f>
         <v>21.19153</v>
       </c>
-      <c r="I6" s="47" t="s">
-        <v>210</v>
+      <c r="I6" s="176" t="s">
+        <v>392</v>
       </c>
       <c r="J6" s="43">
-        <v>44792</v>
+        <v>45047</v>
       </c>
       <c r="O6" s="26"/>
       <c r="X6" s="20">
         <v>1995</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24">
       <c r="A7" s="90" t="s">
         <v>263</v>
       </c>
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="114" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="21">
-        <v>152.88</v>
+        <v>120.61</v>
       </c>
       <c r="E7" s="22">
         <f>+D7*[4]Main!$L$3</f>
-        <v>52877.369999999995</v>
+        <v>41715.983749999999</v>
       </c>
       <c r="F7" s="22">
         <f>([4]Main!$L$5-[4]Main!$L$6)/RMB</f>
@@ -5018,7 +7335,7 @@
       </c>
       <c r="G7" s="22">
         <f>E7-F7</f>
-        <v>27417.577715133528</v>
+        <v>16256.191465133532</v>
       </c>
       <c r="H7" s="22">
         <f>+[4]Main!$L$3</f>
@@ -5032,14 +7349,14 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24">
       <c r="A8" s="108" t="s">
         <v>263</v>
       </c>
-      <c r="B8" s="119" t="s">
+      <c r="B8" s="118" t="s">
         <v>229</v>
       </c>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="119" t="s">
         <v>230</v>
       </c>
       <c r="D8" s="21">
@@ -5054,11 +7371,11 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24">
       <c r="A9" s="111" t="s">
         <v>263</v>
       </c>
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="120" t="s">
         <v>323</v>
       </c>
       <c r="C9" s="111" t="s">
@@ -5071,9 +7388,12 @@
         <v>20860</v>
       </c>
       <c r="O9" s="26"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B10" s="122" t="s">
+      <c r="X9" s="20">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="B10" s="121" t="s">
         <v>79</v>
       </c>
       <c r="C10" s="20" t="s">
@@ -5086,9 +7406,12 @@
         <v>33330</v>
       </c>
       <c r="O10" s="26"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B11" s="122" t="s">
+      <c r="X10" s="20">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="B11" s="121" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="20" t="s">
@@ -5101,9 +7424,12 @@
         <v>28410</v>
       </c>
       <c r="O11" s="26"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B12" s="122" t="s">
+      <c r="X11" s="20">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="B12" s="121" t="s">
         <v>191</v>
       </c>
       <c r="C12" s="20" t="s">
@@ -5116,9 +7442,12 @@
         <v>25220</v>
       </c>
       <c r="O12" s="26"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="115" t="s">
+      <c r="X12" s="20">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="B13" s="114" t="s">
         <v>154</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -5144,9 +7473,12 @@
         <v>14</v>
       </c>
       <c r="O13" s="26"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="122" t="s">
+      <c r="X13" s="20">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="B14" s="121" t="s">
         <v>65</v>
       </c>
       <c r="C14" s="20" t="s">
@@ -5159,9 +7491,12 @@
         <v>19090</v>
       </c>
       <c r="O14" s="26"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="122" t="s">
+      <c r="X14" s="20">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="B15" s="121" t="s">
         <v>69</v>
       </c>
       <c r="C15" s="20" t="s">
@@ -5174,9 +7509,12 @@
         <v>18140</v>
       </c>
       <c r="O15" s="26"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B16" s="122" t="s">
+      <c r="X15" s="20">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="B16" s="121" t="s">
         <v>195</v>
       </c>
       <c r="C16" s="20" t="s">
@@ -5189,9 +7527,12 @@
         <v>17930</v>
       </c>
       <c r="O16" s="26"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="122" t="s">
+      <c r="X16" s="20">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24">
+      <c r="B17" s="121" t="s">
         <v>73</v>
       </c>
       <c r="C17" s="20" t="s">
@@ -5204,9 +7545,12 @@
         <v>17180</v>
       </c>
       <c r="O17" s="26"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="122" t="s">
+      <c r="X17" s="20">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24">
+      <c r="B18" s="121" t="s">
         <v>79</v>
       </c>
       <c r="C18" s="20" t="s">
@@ -5219,9 +7563,12 @@
         <v>16810</v>
       </c>
       <c r="O18" s="26"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="122" t="s">
+      <c r="X18" s="20">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24">
+      <c r="B19" s="121" t="s">
         <v>85</v>
       </c>
       <c r="C19" s="20" t="s">
@@ -5234,9 +7581,12 @@
         <v>15250</v>
       </c>
       <c r="O19" s="26"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="122" t="s">
+      <c r="X19" s="20">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24">
+      <c r="B20" s="121" t="s">
         <v>197</v>
       </c>
       <c r="C20" s="20" t="s">
@@ -5249,9 +7599,12 @@
         <v>16020</v>
       </c>
       <c r="O20" s="26"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="122" t="s">
+      <c r="X20" s="20">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24">
+      <c r="B21" s="121" t="s">
         <v>203</v>
       </c>
       <c r="C21" s="20" t="s">
@@ -5264,9 +7617,12 @@
         <v>15070</v>
       </c>
       <c r="O21" s="26"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="122" t="s">
+      <c r="X21" s="20">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24">
+      <c r="B22" s="121" t="s">
         <v>90</v>
       </c>
       <c r="C22" s="20" t="s">
@@ -5279,9 +7635,12 @@
         <v>14050</v>
       </c>
       <c r="O22" s="26"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="122" t="s">
+      <c r="X22" s="20">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24">
+      <c r="B23" s="121" t="s">
         <v>92</v>
       </c>
       <c r="C23" s="20" t="s">
@@ -5295,8 +7654,8 @@
       </c>
       <c r="O23" s="26"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="122" t="s">
+    <row r="24" spans="2:24">
+      <c r="B24" s="121" t="s">
         <v>94</v>
       </c>
       <c r="C24" s="20" t="s">
@@ -5310,8 +7669,8 @@
       </c>
       <c r="O24" s="26"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="122" t="s">
+    <row r="25" spans="2:24">
+      <c r="B25" s="121" t="s">
         <v>95</v>
       </c>
       <c r="C25" s="20" t="s">
@@ -5324,9 +7683,12 @@
         <v>12990</v>
       </c>
       <c r="O25" s="26"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="122" t="s">
+      <c r="X25" s="20">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24">
+      <c r="B26" s="121" t="s">
         <v>96</v>
       </c>
       <c r="C26" s="20" t="s">
@@ -5339,9 +7701,12 @@
         <v>12660</v>
       </c>
       <c r="O26" s="26"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="122" t="s">
+      <c r="X26" s="20">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24">
+      <c r="B27" s="121" t="s">
         <v>100</v>
       </c>
       <c r="C27" s="20" t="s">
@@ -5355,8 +7720,8 @@
       </c>
       <c r="O27" s="26"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="122" t="s">
+    <row r="28" spans="2:24">
+      <c r="B28" s="121" t="s">
         <v>102</v>
       </c>
       <c r="C28" s="20" t="s">
@@ -5369,9 +7734,12 @@
         <v>11000</v>
       </c>
       <c r="O28" s="26"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="122" t="s">
+      <c r="X28" s="20">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24">
+      <c r="B29" s="121" t="s">
         <v>104</v>
       </c>
       <c r="C29" s="20" t="s">
@@ -5385,8 +7753,8 @@
       </c>
       <c r="O29" s="26"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="122" t="s">
+    <row r="30" spans="2:24">
+      <c r="B30" s="121" t="s">
         <v>108</v>
       </c>
       <c r="C30" s="20" t="s">
@@ -5399,9 +7767,12 @@
         <v>10310</v>
       </c>
       <c r="O30" s="26"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="122" t="s">
+      <c r="X30" s="20">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24">
+      <c r="B31" s="121" t="s">
         <v>110</v>
       </c>
       <c r="C31" s="20" t="s">
@@ -5415,8 +7786,8 @@
       </c>
       <c r="O31" s="26"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="122" t="s">
+    <row r="32" spans="2:24">
+      <c r="B32" s="121" t="s">
         <v>113</v>
       </c>
       <c r="C32" s="20" t="s">
@@ -5430,8 +7801,8 @@
       </c>
       <c r="O32" s="26"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="122" t="s">
+    <row r="33" spans="2:24">
+      <c r="B33" s="121" t="s">
         <v>115</v>
       </c>
       <c r="C33" s="20" t="s">
@@ -5444,9 +7815,12 @@
         <v>9140</v>
       </c>
       <c r="O33" s="26"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B34" s="122" t="s">
+      <c r="X33" s="20">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24">
+      <c r="B34" s="121" t="s">
         <v>117</v>
       </c>
       <c r="C34" s="20" t="s">
@@ -5460,8 +7834,8 @@
       </c>
       <c r="O34" s="26"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="122" t="s">
+    <row r="35" spans="2:24">
+      <c r="B35" s="121" t="s">
         <v>119</v>
       </c>
       <c r="C35" s="20" t="s">
@@ -5474,9 +7848,12 @@
         <v>8580</v>
       </c>
       <c r="O35" s="26"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B36" s="122" t="s">
+      <c r="X35" s="20">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24">
+      <c r="B36" s="121" t="s">
         <v>122</v>
       </c>
       <c r="C36" s="20" t="s">
@@ -5490,8 +7867,8 @@
       </c>
       <c r="O36" s="26"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="122" t="s">
+    <row r="37" spans="2:24">
+      <c r="B37" s="121" t="s">
         <v>124</v>
       </c>
       <c r="C37" s="20" t="s">
@@ -5505,8 +7882,8 @@
       </c>
       <c r="O37" s="26"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="122" t="s">
+    <row r="38" spans="2:24">
+      <c r="B38" s="121" t="s">
         <v>127</v>
       </c>
       <c r="C38" s="20" t="s">
@@ -5520,8 +7897,8 @@
       </c>
       <c r="O38" s="26"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="122" t="s">
+    <row r="39" spans="2:24">
+      <c r="B39" s="121" t="s">
         <v>129</v>
       </c>
       <c r="C39" s="20" t="s">
@@ -5534,9 +7911,12 @@
         <v>7580</v>
       </c>
       <c r="O39" s="26"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B40" s="122" t="s">
+      <c r="X39" s="20">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24">
+      <c r="B40" s="121" t="s">
         <v>131</v>
       </c>
       <c r="C40" s="20" t="s">
@@ -5550,8 +7930,8 @@
       </c>
       <c r="O40" s="26"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B41" s="122" t="s">
+    <row r="41" spans="2:24">
+      <c r="B41" s="121" t="s">
         <v>133</v>
       </c>
       <c r="C41" s="20" t="s">
@@ -5565,8 +7945,8 @@
       </c>
       <c r="O41" s="26"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B42" s="122" t="s">
+    <row r="42" spans="2:24">
+      <c r="B42" s="121" t="s">
         <v>135</v>
       </c>
       <c r="C42" s="20" t="s">
@@ -5580,8 +7960,8 @@
       </c>
       <c r="O42" s="26"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B43" s="122" t="s">
+    <row r="43" spans="2:24">
+      <c r="B43" s="121" t="s">
         <v>139</v>
       </c>
       <c r="C43" s="20" t="s">
@@ -5595,8 +7975,8 @@
       </c>
       <c r="O43" s="26"/>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B44" s="122" t="s">
+    <row r="44" spans="2:24">
+      <c r="B44" s="121" t="s">
         <v>141</v>
       </c>
       <c r="C44" s="20" t="s">
@@ -5610,8 +7990,8 @@
       </c>
       <c r="O44" s="26"/>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B45" s="122" t="s">
+    <row r="45" spans="2:24">
+      <c r="B45" s="121" t="s">
         <v>143</v>
       </c>
       <c r="C45" s="20" t="s">
@@ -5625,8 +8005,8 @@
       </c>
       <c r="O45" s="26"/>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B46" s="122" t="s">
+    <row r="46" spans="2:24">
+      <c r="B46" s="121" t="s">
         <v>144</v>
       </c>
       <c r="C46" s="20" t="s">
@@ -5640,8 +8020,8 @@
       </c>
       <c r="O46" s="26"/>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B47" s="122" t="s">
+    <row r="47" spans="2:24">
+      <c r="B47" s="121" t="s">
         <v>149</v>
       </c>
       <c r="C47" s="20" t="s">
@@ -5655,11 +8035,11 @@
       </c>
       <c r="O47" s="26"/>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B48" s="123" t="s">
+    <row r="48" spans="2:24">
+      <c r="B48" s="122" t="s">
         <v>225</v>
       </c>
-      <c r="C48" s="124" t="s">
+      <c r="C48" s="123" t="s">
         <v>226</v>
       </c>
       <c r="D48" s="21">
@@ -5670,11 +8050,11 @@
       </c>
       <c r="O48" s="26"/>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B49" s="123" t="s">
+    <row r="49" spans="2:15">
+      <c r="B49" s="122" t="s">
         <v>227</v>
       </c>
-      <c r="C49" s="124" t="s">
+      <c r="C49" s="123" t="s">
         <v>228</v>
       </c>
       <c r="D49" s="21">
@@ -5685,8 +8065,8 @@
       </c>
       <c r="O49" s="26"/>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B50" s="125" t="s">
+    <row r="50" spans="2:15">
+      <c r="B50" s="124" t="s">
         <v>236</v>
       </c>
       <c r="C50" s="46" t="s">
@@ -5694,53 +8074,57 @@
       </c>
       <c r="O50" s="26"/>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B51" s="122"/>
+    <row r="51" spans="2:15">
+      <c r="B51" s="164" t="s">
+        <v>410</v>
+      </c>
       <c r="O51" s="26"/>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B52" s="122"/>
+    <row r="52" spans="2:15">
+      <c r="B52" s="164" t="s">
+        <v>411</v>
+      </c>
       <c r="O52" s="26"/>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B53" s="122"/>
+    <row r="53" spans="2:15">
+      <c r="B53" s="121"/>
       <c r="O53" s="26"/>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B54" s="122"/>
+    <row r="54" spans="2:15">
+      <c r="B54" s="121"/>
       <c r="O54" s="26"/>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B55" s="122"/>
+    <row r="55" spans="2:15">
+      <c r="B55" s="121"/>
       <c r="O55" s="26"/>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B56" s="122"/>
+    <row r="56" spans="2:15">
+      <c r="B56" s="121"/>
       <c r="O56" s="26"/>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B57" s="122"/>
+    <row r="57" spans="2:15">
+      <c r="B57" s="121"/>
       <c r="O57" s="26"/>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B58" s="122"/>
+    <row r="58" spans="2:15">
+      <c r="B58" s="121"/>
       <c r="O58" s="26"/>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B59" s="126"/>
-      <c r="C59" s="127"/>
-      <c r="D59" s="128"/>
-      <c r="E59" s="129"/>
-      <c r="F59" s="130"/>
-      <c r="G59" s="130"/>
-      <c r="H59" s="130"/>
-      <c r="I59" s="130"/>
-      <c r="J59" s="130"/>
-      <c r="K59" s="131"/>
-      <c r="L59" s="131"/>
-      <c r="M59" s="131"/>
-      <c r="N59" s="131"/>
-      <c r="O59" s="132"/>
+    <row r="59" spans="2:15">
+      <c r="B59" s="125"/>
+      <c r="C59" s="126"/>
+      <c r="D59" s="127"/>
+      <c r="E59" s="128"/>
+      <c r="F59" s="129"/>
+      <c r="G59" s="129"/>
+      <c r="H59" s="129"/>
+      <c r="I59" s="129"/>
+      <c r="J59" s="129"/>
+      <c r="K59" s="130"/>
+      <c r="L59" s="130"/>
+      <c r="M59" s="130"/>
+      <c r="N59" s="130"/>
+      <c r="O59" s="131"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5757,16 +8141,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972A0FE3-503A-448B-BE6E-F545711F1B98}">
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="72" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="72" customWidth="1"/>
@@ -5779,12 +8163,12 @@
     <col min="11" max="16384" width="9.140625" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24">
       <c r="A1" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24">
       <c r="B2" s="73" t="s">
         <v>0</v>
       </c>
@@ -5855,22 +8239,22 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="20" customFormat="1">
       <c r="A3" s="72" t="s">
         <v>263</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="114" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="21">
-        <v>88</v>
+        <v>105.45</v>
       </c>
       <c r="E3" s="22">
         <f>+D3*[6]Main!$K$3</f>
-        <v>909128</v>
+        <v>1089403.95</v>
       </c>
       <c r="F3" s="22">
         <f>[6]Main!$K$5-[6]Main!$K$6</f>
@@ -5878,75 +8262,75 @@
       </c>
       <c r="G3" s="22">
         <f>+E3-F3</f>
-        <v>909385</v>
+        <v>1089660.95</v>
       </c>
       <c r="H3" s="22">
         <f>+[6]Main!$K$3</f>
         <v>10331</v>
       </c>
-      <c r="I3" s="142" t="s">
-        <v>362</v>
+      <c r="I3" s="176" t="s">
+        <v>502</v>
       </c>
       <c r="J3" s="43">
-        <v>44913</v>
+        <v>45047</v>
       </c>
       <c r="K3" s="27">
-        <f>+[6]Model!$BL$49</f>
-        <v>139.08156491053268</v>
+        <f>+[6]Model!$BL$48</f>
+        <v>127.46157686951391</v>
       </c>
       <c r="L3" s="28">
         <f>K3/D3-1</f>
-        <v>0.5804723285287805</v>
+        <v>0.20873946770520524</v>
       </c>
       <c r="M3" s="36">
+        <f>+[6]Model!$BL$44</f>
+        <v>0.08</v>
+      </c>
+      <c r="N3" s="28">
+        <f>+[6]Model!$BL$46</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="115">
         <f>+[6]Model!$BL$45</f>
-        <v>0.08</v>
-      </c>
-      <c r="N3" s="28">
-        <f>+[6]Model!$BL$47</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="116">
-        <f>+[6]Model!$BL$46</f>
         <v>0.01</v>
       </c>
       <c r="P3" s="29">
         <f>+($G3/$H3)/T3</f>
-        <v>568.2032616160601</v>
+        <v>204.14815850346861</v>
       </c>
       <c r="Q3" s="30">
         <f>+($G3/$H3)/U3</f>
-        <v>39.895842815908068</v>
+        <v>64.314822911120359</v>
       </c>
       <c r="R3" s="30">
         <f>+($G3/$H3)/V3</f>
-        <v>36.185731876308488</v>
+        <v>52.509160501491465</v>
       </c>
       <c r="S3" s="31">
         <f>+($G3/$H3)/W3</f>
-        <v>22.013215348497774</v>
+        <v>30.15617086566083</v>
       </c>
       <c r="T3" s="32">
-        <f>+[6]Model!$BA$34</f>
-        <v>0.15491793611792834</v>
+        <f>+[6]Model!$BA$33</f>
+        <v>0.51665847665847664</v>
       </c>
       <c r="U3" s="27">
-        <f>+[6]Model!$BB$34</f>
-        <v>2.206367139333532</v>
+        <f>+[6]Model!$BB$33</f>
+        <v>1.6399777191456466</v>
       </c>
       <c r="V3" s="27">
-        <f>+[6]Model!$BC$34</f>
-        <v>2.4325852213221908</v>
+        <f>+[6]Model!$BC$33</f>
+        <v>2.0086947796859072</v>
       </c>
       <c r="W3" s="33">
-        <f>+[6]Model!$BD$34</f>
-        <v>3.9987287268800702</v>
+        <f>+[6]Model!$BD$33</f>
+        <v>3.4976216660564408</v>
       </c>
       <c r="X3" s="20">
         <v>1994</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" s="20" customFormat="1">
       <c r="A4" s="72" t="s">
         <v>263</v>
       </c>
@@ -5961,22 +8345,22 @@
       </c>
       <c r="E4" s="22">
         <f>+D4*[7]Main!$G$3</f>
-        <v>218526.68</v>
+        <v>220914.08</v>
       </c>
       <c r="F4" s="22">
         <f>+[7]Main!$G$5-[7]Main!$G$6</f>
-        <v>-83569</v>
+        <v>-83042</v>
       </c>
       <c r="G4" s="22">
         <f>+E4-F4</f>
-        <v>302095.68</v>
+        <v>303956.07999999996</v>
       </c>
       <c r="H4" s="22">
         <f>+[7]Main!$G$3</f>
-        <v>2746</v>
-      </c>
-      <c r="I4" s="142" t="s">
-        <v>362</v>
+        <v>2776</v>
+      </c>
+      <c r="I4" s="141" t="s">
+        <v>361</v>
       </c>
       <c r="J4" s="43">
         <v>44913</v>
@@ -5998,7 +8382,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" s="20" customFormat="1">
       <c r="A5" s="82" t="s">
         <v>263</v>
       </c>
@@ -6027,8 +8411,8 @@
         <f>+[8]Main!$M$3</f>
         <v>1000</v>
       </c>
-      <c r="I5" s="148" t="s">
-        <v>362</v>
+      <c r="I5" s="146" t="s">
+        <v>361</v>
       </c>
       <c r="J5" s="43">
         <v>44946</v>
@@ -6064,7 +8448,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" s="20" customFormat="1">
       <c r="A6" s="82" t="s">
         <v>263</v>
       </c>
@@ -6111,7 +8495,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" s="20" customFormat="1">
       <c r="A7" s="82" t="s">
         <v>263</v>
       </c>
@@ -6158,7 +8542,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" s="20" customFormat="1">
       <c r="A8" s="94" t="s">
         <v>263</v>
       </c>
@@ -6208,7 +8592,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24">
       <c r="A9" s="82" t="s">
         <v>263</v>
       </c>
@@ -6218,11 +8602,17 @@
       <c r="C9" s="82" t="s">
         <v>266</v>
       </c>
+      <c r="D9" s="162">
+        <v>129.71</v>
+      </c>
+      <c r="E9" s="71">
+        <v>118000</v>
+      </c>
       <c r="X9" s="72">
         <v>1911</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24">
       <c r="A10" s="89" t="s">
         <v>263</v>
       </c>
@@ -6254,11 +8644,14 @@
       <c r="I10" s="34" t="s">
         <v>14</v>
       </c>
+      <c r="J10" s="103">
+        <v>45003</v>
+      </c>
       <c r="X10" s="72">
         <v>2002</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24">
       <c r="A11" s="98" t="s">
         <v>263</v>
       </c>
@@ -6269,11 +8662,11 @@
         <v>51</v>
       </c>
       <c r="D11" s="21">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="E11" s="22">
         <f>+D11*H11</f>
-        <v>42336</v>
+        <v>47880</v>
       </c>
       <c r="F11" s="22">
         <f>+[13]Main!$P$5-[13]Main!$P$6</f>
@@ -6281,23 +8674,23 @@
       </c>
       <c r="G11" s="22">
         <f t="shared" si="1"/>
-        <v>40202</v>
+        <v>45746</v>
       </c>
       <c r="H11" s="23">
         <f>+[13]Main!$P$3</f>
         <v>252</v>
       </c>
-      <c r="I11" s="47" t="s">
-        <v>14</v>
+      <c r="I11" s="157" t="s">
+        <v>392</v>
       </c>
       <c r="J11" s="43">
-        <v>44793</v>
+        <v>45006</v>
       </c>
       <c r="X11" s="72">
         <v>2005</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24">
       <c r="A12" s="89" t="s">
         <v>263</v>
       </c>
@@ -6333,7 +8726,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24">
       <c r="A13" s="101" t="s">
         <v>263</v>
       </c>
@@ -6372,7 +8765,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24">
       <c r="A14" s="105" t="s">
         <v>263</v>
       </c>
@@ -6382,8 +8775,12 @@
       <c r="C14" s="105" t="s">
         <v>184</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
+      <c r="D14" s="21">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="E14" s="22">
+        <v>20740</v>
+      </c>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
@@ -6393,7 +8790,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24">
       <c r="A15" s="105" t="s">
         <v>263</v>
       </c>
@@ -6432,7 +8829,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" s="20" customFormat="1">
       <c r="B16" s="20" t="s">
         <v>67</v>
       </c>
@@ -6467,19 +8864,19 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="17" spans="2:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="144" t="s">
+    <row r="17" spans="2:24" s="20" customFormat="1">
+      <c r="B17" s="143" t="s">
         <v>201</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>202</v>
       </c>
       <c r="D17" s="21">
-        <v>59.49</v>
+        <v>84</v>
       </c>
       <c r="E17" s="22">
         <f>+D17*H17</f>
-        <v>9339.93</v>
+        <v>13188</v>
       </c>
       <c r="F17" s="22">
         <f>+[17]Main!$P$5-[17]Main!$P$6</f>
@@ -6487,7 +8884,7 @@
       </c>
       <c r="G17" s="22">
         <f>+E17-F17</f>
-        <v>9057.93</v>
+        <v>12906</v>
       </c>
       <c r="H17" s="22">
         <f>+[17]Main!$P$3</f>
@@ -6516,8 +8913,8 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="18" spans="2:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="122" t="s">
+    <row r="18" spans="2:24" s="20" customFormat="1">
+      <c r="B18" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C18" s="20" t="s">
@@ -6548,7 +8945,7 @@
       <c r="V18" s="24"/>
       <c r="W18" s="26"/>
     </row>
-    <row r="19" spans="2:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:24" s="20" customFormat="1">
       <c r="B19" s="20" t="s">
         <v>193</v>
       </c>
@@ -6583,33 +8980,114 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B20" s="135" t="s">
+    <row r="20" spans="2:24" s="20" customFormat="1">
+      <c r="B20" s="165" t="s">
+        <v>412</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22">
+        <v>7120</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+    </row>
+    <row r="21" spans="2:24">
+      <c r="B21" s="134" t="s">
         <v>339</v>
       </c>
-      <c r="C20" s="143" t="s">
-        <v>387</v>
-      </c>
-      <c r="D20" s="72">
+      <c r="C21" s="142" t="s">
+        <v>386</v>
+      </c>
+      <c r="D21" s="72">
         <v>25.54</v>
       </c>
-      <c r="E20" s="71">
+      <c r="E21" s="71">
         <v>4800</v>
       </c>
-      <c r="X20" s="72">
+      <c r="X21" s="72">
         <v>2012</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B26" s="95" t="s">
+    <row r="22" spans="2:24">
+      <c r="B22" s="161" t="s">
+        <v>399</v>
+      </c>
+      <c r="C22" s="161" t="s">
+        <v>400</v>
+      </c>
+      <c r="D22" s="72">
+        <v>10.88</v>
+      </c>
+      <c r="E22" s="71">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24">
+      <c r="B27" s="95" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B27" s="94" t="s">
+      <c r="I27" s="166" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24">
+      <c r="B28" s="166" t="s">
+        <v>432</v>
+      </c>
+      <c r="E28" s="72">
+        <v>30000</v>
+      </c>
+      <c r="I28" s="166"/>
+    </row>
+    <row r="29" spans="2:24">
+      <c r="B29" s="166" t="s">
+        <v>486</v>
+      </c>
+      <c r="E29" s="72">
+        <v>10000</v>
+      </c>
+      <c r="F29" s="166" t="s">
+        <v>488</v>
+      </c>
+      <c r="G29" s="166" t="s">
+        <v>487</v>
+      </c>
+      <c r="H29" s="166" t="s">
+        <v>489</v>
+      </c>
+      <c r="I29" s="72">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24">
+      <c r="B30" s="166" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="166"/>
+      <c r="G30" s="166"/>
+      <c r="H30" s="166"/>
+    </row>
+    <row r="31" spans="2:24">
+      <c r="B31" s="94" t="s">
         <v>286</v>
       </c>
-      <c r="E27" s="72">
+      <c r="E31" s="72">
         <v>107</v>
       </c>
     </row>
@@ -6638,14 +9116,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494F58CA-3A5E-4A8C-A323-FDAA45D59D23}">
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="63" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="63" customWidth="1"/>
@@ -6655,12 +9133,12 @@
     <col min="11" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24">
       <c r="A1" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
@@ -6731,7 +9209,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="20" customFormat="1">
       <c r="A3" s="72" t="s">
         <v>263</v>
       </c>
@@ -6742,11 +9220,11 @@
         <v>205</v>
       </c>
       <c r="D3" s="21">
-        <v>109.86</v>
+        <v>210</v>
       </c>
       <c r="E3" s="22">
         <f>+D3*[18]Main!$M$3</f>
-        <v>291299.13732564001</v>
+        <v>556825.22154000006</v>
       </c>
       <c r="F3" s="22">
         <f>+[18]Main!$M$5-[18]Main!$M$6</f>
@@ -6754,14 +9232,14 @@
       </c>
       <c r="G3" s="22">
         <f t="shared" ref="G3:G4" si="0">+E3-F3</f>
-        <v>252917.13732564001</v>
+        <v>518443.22154000006</v>
       </c>
       <c r="H3" s="22">
         <f>+[18]Main!$M$3</f>
         <v>2651.5486740000001</v>
       </c>
-      <c r="I3" s="140" t="s">
-        <v>362</v>
+      <c r="I3" s="139" t="s">
+        <v>361</v>
       </c>
       <c r="J3" s="43">
         <v>44959</v>
@@ -6772,7 +9250,7 @@
       </c>
       <c r="L3" s="28">
         <f>K3/D3-1</f>
-        <v>0.9650161123557226</v>
+        <v>2.7984143349522261E-2</v>
       </c>
       <c r="M3" s="28">
         <f>+[18]Model!$AX$50</f>
@@ -6798,7 +9276,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" s="20" customFormat="1">
       <c r="A4" s="72" t="s">
         <v>263</v>
       </c>
@@ -6827,7 +9305,7 @@
         <f>+[19]Main!$L$3*1000</f>
         <v>9672</v>
       </c>
-      <c r="I4" s="117" t="s">
+      <c r="I4" s="116" t="s">
         <v>210</v>
       </c>
       <c r="J4" s="43">
@@ -6850,7 +9328,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" s="20" customFormat="1">
       <c r="A5" s="96" t="s">
         <v>263</v>
       </c>
@@ -6884,15 +9362,15 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="137" t="s">
+    <row r="6" spans="1:24" s="20" customFormat="1">
+      <c r="A6" s="136" t="s">
         <v>263</v>
       </c>
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="136" t="s">
         <v>340</v>
       </c>
-      <c r="C6" s="137" t="s">
-        <v>342</v>
+      <c r="C6" s="136" t="s">
+        <v>341</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="22"/>
@@ -6918,11 +9396,11 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" s="20" customFormat="1">
       <c r="A7" s="107" t="s">
         <v>263</v>
       </c>
-      <c r="B7" s="144" t="s">
+      <c r="B7" s="143" t="s">
         <v>309</v>
       </c>
       <c r="C7" s="107" t="s">
@@ -6959,15 +9437,15 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="145" t="s">
+    <row r="8" spans="1:24" s="20" customFormat="1">
+      <c r="A8" s="144" t="s">
         <v>263</v>
       </c>
-      <c r="B8" s="144" t="s">
+      <c r="B8" s="143" t="s">
+        <v>387</v>
+      </c>
+      <c r="C8" s="144" t="s">
         <v>388</v>
-      </c>
-      <c r="C8" s="145" t="s">
-        <v>389</v>
       </c>
       <c r="D8" s="21">
         <v>12</v>
@@ -6976,7 +9454,7 @@
         <f>+D8*H8</f>
         <v>19357.212852000001</v>
       </c>
-      <c r="F8" s="151">
+      <c r="F8" s="149">
         <f>+[20]Main!$L$5-[20]Main!$L$6</f>
         <v>688.14800000000014</v>
       </c>
@@ -6988,7 +9466,7 @@
         <f>+[20]Main!$L$3</f>
         <v>1613.101071</v>
       </c>
-      <c r="I8" s="150" t="s">
+      <c r="I8" s="148" t="s">
         <v>210</v>
       </c>
       <c r="J8" s="43">
@@ -7008,7 +9486,7 @@
       <c r="V8" s="24"/>
       <c r="W8" s="24"/>
     </row>
-    <row r="9" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" s="20" customFormat="1">
       <c r="B9" s="96" t="s">
         <v>289</v>
       </c>
@@ -7039,7 +9517,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" s="20" customFormat="1">
       <c r="B10" s="96" t="s">
         <v>293</v>
       </c>
@@ -7070,11 +9548,11 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="134" t="s">
+    <row r="11" spans="1:24" s="20" customFormat="1">
+      <c r="B11" s="133" t="s">
         <v>329</v>
       </c>
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="133" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="21"/>
@@ -7098,11 +9576,11 @@
       <c r="V11" s="24"/>
       <c r="W11" s="24"/>
     </row>
-    <row r="12" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="134" t="s">
+    <row r="12" spans="1:24" s="20" customFormat="1">
+      <c r="B12" s="133" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="134" t="s">
+      <c r="C12" s="133" t="s">
         <v>136</v>
       </c>
       <c r="D12" s="21"/>
@@ -7126,11 +9604,11 @@
       <c r="V12" s="24"/>
       <c r="W12" s="24"/>
     </row>
-    <row r="13" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="141" t="s">
-        <v>371</v>
-      </c>
-      <c r="C13" s="134"/>
+    <row r="13" spans="1:24" s="20" customFormat="1">
+      <c r="B13" s="140" t="s">
+        <v>370</v>
+      </c>
+      <c r="C13" s="133"/>
       <c r="D13" s="21"/>
       <c r="E13" s="22"/>
       <c r="F13" s="23"/>
@@ -7152,15 +9630,15 @@
       <c r="V13" s="24"/>
       <c r="W13" s="24"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="134" t="s">
+    <row r="14" spans="1:24">
+      <c r="B14" s="133" t="s">
         <v>334</v>
       </c>
-      <c r="C14" s="134" t="s">
+      <c r="C14" s="133" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" s="20" customFormat="1">
       <c r="B15" s="5"/>
       <c r="D15" s="21"/>
       <c r="E15" s="22"/>
@@ -7183,215 +9661,211 @@
       <c r="V15" s="24"/>
       <c r="W15" s="24"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24">
       <c r="B16" s="64" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6">
       <c r="B17" s="96" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E17" s="171">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="63" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B19" s="134" t="s">
+      <c r="E18" s="171">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="21">
+        <v>44.5</v>
+      </c>
+      <c r="E19" s="22">
+        <v>34050</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="133" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B20" s="63" t="s">
+      <c r="E20" s="171">
+        <v>14500</v>
+      </c>
+      <c r="F20" s="63">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="64" t="s">
+        <v>332</v>
+      </c>
+      <c r="E21" s="171">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="63" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B21" s="134" t="s">
+      <c r="E22" s="63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="133" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="64" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B23" s="134" t="s">
+    <row r="24" spans="2:6">
+      <c r="B24" s="133" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B24" s="134" t="s">
+    <row r="25" spans="2:6">
+      <c r="B25" s="133" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B25" s="134" t="s">
+    <row r="26" spans="2:6">
+      <c r="B26" s="133" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B26" s="134" t="s">
+    <row r="27" spans="2:6">
+      <c r="B27" s="133" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B27" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="D27" s="21">
-        <v>44.5</v>
-      </c>
-      <c r="E27" s="22">
-        <v>34050</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="107"/>
-      <c r="B28" s="137" t="s">
-        <v>341</v>
-      </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="26"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B29" s="141" t="s">
+    <row r="28" spans="2:6">
+      <c r="B28" s="140" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="63" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="140" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B30" s="63" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B31" s="141" t="s">
+    <row r="31" spans="2:6">
+      <c r="B31" s="172" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="140" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B32" s="141" t="s">
+    <row r="33" spans="2:2">
+      <c r="B33" s="140" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="141" t="s">
+    <row r="34" spans="2:2">
+      <c r="B34" s="140" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="140" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="141" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="141" t="s">
+    <row r="36" spans="2:2">
+      <c r="B36" s="140" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="141" t="s">
+    <row r="37" spans="2:2">
+      <c r="B37" s="140" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="141" t="s">
+    <row r="38" spans="2:2">
+      <c r="B38" s="140" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" s="141" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="141" t="s">
+    <row r="39" spans="2:2">
+      <c r="B39" s="140" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="140" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B40" s="141" t="s">
+    <row r="41" spans="2:2">
+      <c r="B41" s="140" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" s="141" t="s">
+    <row r="42" spans="2:2">
+      <c r="B42" s="140" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B42" s="141" t="s">
+    <row r="43" spans="2:2">
+      <c r="B43" s="140" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B43" s="141" t="s">
+    <row r="44" spans="2:2">
+      <c r="B44" s="140" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B44" s="141" t="s">
+    <row r="45" spans="2:2">
+      <c r="B45" s="140" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45" s="141" t="s">
+    <row r="46" spans="2:2">
+      <c r="B46" s="140" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B46" s="141" t="s">
+    <row r="47" spans="2:2">
+      <c r="B47" s="140" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B47" s="141" t="s">
+    <row r="48" spans="2:2">
+      <c r="B48" s="140" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B48" s="141" t="s">
+    <row r="49" spans="2:2">
+      <c r="B49" s="140" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="141" t="s">
+    <row r="50" spans="2:2">
+      <c r="B50" s="140" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="141" t="s">
+    <row r="51" spans="2:2">
+      <c r="B51" s="140" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="141" t="s">
-        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -7409,32 +9883,58 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F12437-B4E9-44AF-8552-EF0FF979C92B}">
-  <dimension ref="A1:X18"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:J7"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="113" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="113" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="113"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24">
       <c r="A1" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24">
       <c r="A2" s="5"/>
-      <c r="E2" s="114">
-        <f>SUM(E3:E48)</f>
-        <v>229232.87038208998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="158" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="159" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="160" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="159" t="s">
+        <v>397</v>
+      </c>
+      <c r="G2" s="159" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="159" t="s">
+        <v>223</v>
+      </c>
+      <c r="I2" s="159" t="s">
+        <v>398</v>
+      </c>
+      <c r="J2" s="159" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="20" customFormat="1">
       <c r="A3" s="89" t="s">
         <v>263</v>
       </c>
@@ -7483,7 +9983,7 @@
       <c r="V3" s="24"/>
       <c r="W3" s="26"/>
     </row>
-    <row r="4" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" s="20" customFormat="1">
       <c r="A4" s="89" t="s">
         <v>263</v>
       </c>
@@ -7527,7 +10027,7 @@
       <c r="V4" s="24"/>
       <c r="W4" s="26"/>
     </row>
-    <row r="5" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" s="20" customFormat="1">
       <c r="A5" s="89" t="s">
         <v>263</v>
       </c>
@@ -7574,7 +10074,7 @@
       <c r="V5" s="24"/>
       <c r="W5" s="26"/>
     </row>
-    <row r="6" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" s="20" customFormat="1">
       <c r="A6" s="92" t="s">
         <v>263</v>
       </c>
@@ -7624,7 +10124,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" s="20" customFormat="1">
       <c r="B7" s="5" t="s">
         <v>62</v>
       </c>
@@ -7670,7 +10170,7 @@
       <c r="V7" s="24"/>
       <c r="W7" s="26"/>
     </row>
-    <row r="8" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" s="20" customFormat="1">
       <c r="B8" s="40" t="s">
         <v>232</v>
       </c>
@@ -7702,27 +10202,80 @@
       <c r="V8" s="24"/>
       <c r="W8" s="26"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24">
       <c r="B9" s="113" t="s">
         <v>326</v>
       </c>
-      <c r="C9" s="143" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C9" s="142" t="s">
+        <v>384</v>
+      </c>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+    </row>
+    <row r="10" spans="1:24">
       <c r="B10" s="113" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="132"/>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="95" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="143" t="s">
-        <v>386</v>
+    <row r="18" spans="2:5">
+      <c r="B18" s="166" t="s">
+        <v>494</v>
+      </c>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="158" t="s">
+        <v>394</v>
+      </c>
+      <c r="E19" s="113">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="158" t="s">
+        <v>396</v>
+      </c>
+      <c r="E20" s="113">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="166" t="s">
+        <v>493</v>
+      </c>
+      <c r="E21" s="113">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="142" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="158" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -7740,1284 +10293,1379 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDC990C-C1C5-4FE2-B554-717099EBE596}">
-  <dimension ref="A1:X26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9C89C9-C58C-431A-80D5-5C7D568EC13B}">
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="10" customWidth="1"/>
-    <col min="3" max="9" width="9.140625" style="10"/>
-    <col min="10" max="10" width="10.28515625" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="5.42578125" style="179" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="179" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="182"/>
+    <col min="4" max="4" width="9.140625" style="180"/>
+    <col min="5" max="5" width="19" style="179" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="180"/>
+    <col min="7" max="7" width="13.28515625" style="179" customWidth="1"/>
+    <col min="8" max="8" width="16" style="179" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="179"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="1:10">
+      <c r="B2" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="P2" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q2" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="R2" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="S2" s="19">
-        <v>2025</v>
-      </c>
-      <c r="T2" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="U2" s="18">
+      <c r="E2" s="179" t="s">
+        <v>415</v>
+      </c>
+      <c r="F2" s="180" t="s">
+        <v>416</v>
+      </c>
+      <c r="G2" s="179" t="s">
+        <v>417</v>
+      </c>
+      <c r="H2" s="179" t="s">
+        <v>420</v>
+      </c>
+      <c r="I2" s="179" t="s">
+        <v>438</v>
+      </c>
+      <c r="J2" s="180" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="179" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="182" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="180">
+        <v>2000000</v>
+      </c>
+      <c r="E3" s="179" t="s">
+        <v>520</v>
+      </c>
+      <c r="F3" s="180" t="s">
+        <v>520</v>
+      </c>
+      <c r="G3" s="179" t="s">
+        <v>418</v>
+      </c>
+      <c r="J3" s="179">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="179" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="182" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="180">
+        <v>1000000</v>
+      </c>
+      <c r="E4" s="179" t="s">
+        <v>520</v>
+      </c>
+      <c r="F4" s="180" t="s">
+        <v>520</v>
+      </c>
+      <c r="G4" s="179" t="s">
+        <v>419</v>
+      </c>
+      <c r="J4" s="179">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="179" t="s">
+        <v>434</v>
+      </c>
+      <c r="C5" s="182" t="s">
+        <v>513</v>
+      </c>
+      <c r="D5" s="180">
+        <v>1000000</v>
+      </c>
+      <c r="E5" s="179" t="s">
+        <v>520</v>
+      </c>
+      <c r="F5" s="180" t="s">
+        <v>520</v>
+      </c>
+      <c r="G5" s="179" t="s">
+        <v>511</v>
+      </c>
+      <c r="J5" s="179">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="185" t="s">
+        <v>496</v>
+      </c>
+      <c r="C6" s="186" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="185" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="179" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="182" t="s">
+        <v>521</v>
+      </c>
+      <c r="D7" s="180">
+        <v>500000</v>
+      </c>
+      <c r="E7" s="179" t="s">
+        <v>520</v>
+      </c>
+      <c r="F7" s="180" t="s">
+        <v>520</v>
+      </c>
+      <c r="G7" s="179" t="s">
+        <v>522</v>
+      </c>
+      <c r="H7" s="179" t="s">
+        <v>523</v>
+      </c>
+      <c r="J7" s="179">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="179" t="s">
+        <v>403</v>
+      </c>
+      <c r="C8" s="182" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="180">
+        <v>35000</v>
+      </c>
+      <c r="F8" s="180" t="s">
+        <v>436</v>
+      </c>
+      <c r="G8" s="179" t="s">
+        <v>525</v>
+      </c>
+      <c r="H8" s="179" t="s">
+        <v>524</v>
+      </c>
+      <c r="J8" s="179">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="179" t="s">
+        <v>432</v>
+      </c>
+      <c r="C9" s="182" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="180">
+        <v>25000</v>
+      </c>
+      <c r="F9" s="180" t="s">
+        <v>435</v>
+      </c>
+      <c r="J9" s="179">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="179" t="s">
+        <v>431</v>
+      </c>
+      <c r="C10" s="182" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="180">
+        <v>21000</v>
+      </c>
+      <c r="F10" s="180" t="s">
+        <v>433</v>
+      </c>
+      <c r="J10" s="179">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="179" t="s">
+        <v>407</v>
+      </c>
+      <c r="C11" s="182" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="180">
+        <v>6000</v>
+      </c>
+      <c r="E11" s="179" t="s">
+        <v>526</v>
+      </c>
+      <c r="F11" s="180" t="s">
+        <v>510</v>
+      </c>
+      <c r="G11" s="179" t="s">
+        <v>512</v>
+      </c>
+      <c r="J11" s="179">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="179" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="182" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="180">
+        <v>4100</v>
+      </c>
+      <c r="E12" s="179" t="s">
+        <v>404</v>
+      </c>
+      <c r="F12" s="180" t="s">
+        <v>409</v>
+      </c>
+      <c r="G12" s="179" t="s">
+        <v>405</v>
+      </c>
+      <c r="H12" s="179" t="s">
+        <v>406</v>
+      </c>
+      <c r="J12" s="179">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="179" t="s">
+        <v>421</v>
+      </c>
+      <c r="C13" s="182" t="s">
+        <v>258</v>
+      </c>
+      <c r="D13" s="180">
+        <v>4000</v>
+      </c>
+      <c r="F13" s="180" t="s">
+        <v>492</v>
+      </c>
+      <c r="J13" s="179">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="179" t="s">
+        <v>425</v>
+      </c>
+      <c r="C14" s="182" t="s">
+        <v>258</v>
+      </c>
+      <c r="D14" s="180">
+        <v>2000</v>
+      </c>
+      <c r="G14" s="179" t="s">
+        <v>545</v>
+      </c>
+      <c r="H14" s="179" t="s">
+        <v>546</v>
+      </c>
+      <c r="I14" s="184" t="s">
+        <v>547</v>
+      </c>
+      <c r="J14" s="179">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="179" t="s">
+        <v>422</v>
+      </c>
+      <c r="C15" s="182" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" s="180">
+        <v>1980</v>
+      </c>
+      <c r="E15" s="179" t="s">
+        <v>520</v>
+      </c>
+      <c r="J15" s="179">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="179" t="s">
+        <v>426</v>
+      </c>
+      <c r="C16" s="182" t="s">
+        <v>258</v>
+      </c>
+      <c r="D16" s="180">
+        <v>1500</v>
+      </c>
+      <c r="F16" s="180" t="s">
+        <v>519</v>
+      </c>
+      <c r="J16" s="179">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="179" t="s">
+        <v>428</v>
+      </c>
+      <c r="C17" s="182" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" s="180">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="180" t="s">
+        <v>518</v>
+      </c>
+      <c r="J17" s="179">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="179" t="s">
+        <v>424</v>
+      </c>
+      <c r="C18" s="182" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" s="180">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="180" t="s">
+        <v>447</v>
+      </c>
+      <c r="H18" s="179" t="s">
+        <v>462</v>
+      </c>
+      <c r="J18" s="179">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="179" t="s">
+        <v>440</v>
+      </c>
+      <c r="C19" s="182" t="s">
+        <v>258</v>
+      </c>
+      <c r="D19" s="180">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="180" t="s">
+        <v>441</v>
+      </c>
+      <c r="J19" s="179">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="179" t="s">
+        <v>515</v>
+      </c>
+      <c r="C20" s="182" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" s="180">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="179" t="s">
+        <v>527</v>
+      </c>
+      <c r="F20" s="180" t="s">
+        <v>516</v>
+      </c>
+      <c r="J20" s="179">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="179" t="s">
+        <v>413</v>
+      </c>
+      <c r="C21" s="182" t="s">
+        <v>258</v>
+      </c>
+      <c r="D21" s="180">
+        <v>750</v>
+      </c>
+      <c r="F21" s="180" t="s">
+        <v>492</v>
+      </c>
+      <c r="J21" s="179">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="179" t="s">
+        <v>408</v>
+      </c>
+      <c r="C22" s="182" t="s">
+        <v>258</v>
+      </c>
+      <c r="D22" s="180">
+        <v>600</v>
+      </c>
+      <c r="G22" s="179" t="s">
+        <v>538</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="J22" s="179">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="179" t="s">
+        <v>414</v>
+      </c>
+      <c r="C23" s="182" t="s">
+        <v>258</v>
+      </c>
+      <c r="D23" s="180">
+        <v>200</v>
+      </c>
+      <c r="F23" s="180" t="s">
+        <v>514</v>
+      </c>
+      <c r="J23" s="179">
         <v>2023</v>
       </c>
-      <c r="V2" s="18">
-        <v>2024</v>
-      </c>
-      <c r="W2" s="19">
-        <v>2025</v>
-      </c>
-      <c r="X2" s="51" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="72" t="s">
-        <v>263</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="21">
-        <v>252</v>
-      </c>
-      <c r="E3" s="22">
-        <f>D3*[1]Main!$L$3</f>
-        <v>1898568</v>
-      </c>
-      <c r="F3" s="22">
-        <f>[1]Main!$L$5-[1]Main!$L$6</f>
-        <v>65479</v>
-      </c>
-      <c r="G3" s="22">
-        <f>+E3-F3</f>
-        <v>1833089</v>
-      </c>
-      <c r="H3" s="22">
-        <f>+[1]Main!$L$3</f>
-        <v>7534</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="72" t="s">
-        <v>263</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="21">
-        <v>391.4</v>
-      </c>
-      <c r="E4" s="22">
-        <f>+D4*[19]Main!$L$3*1000/HKD</f>
-        <v>482256.9746999924</v>
-      </c>
-      <c r="F4" s="22">
-        <f>([19]Main!$L$5-[19]Main!$L$6)/HKD*1000</f>
-        <v>81912.914978725574</v>
-      </c>
-      <c r="G4" s="22">
-        <f>+E4-F4</f>
-        <v>400344.05972126685</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="82" t="s">
-        <v>263</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="21">
-        <v>309.18</v>
-      </c>
-      <c r="E5" s="22">
-        <f>+D5*[26]Main!$N$3</f>
-        <v>146087.55000000002</v>
-      </c>
-      <c r="F5" s="22">
-        <f>+[26]Main!$N$5-[26]Main!$N$6</f>
-        <v>1173</v>
-      </c>
-      <c r="G5" s="22">
-        <f t="shared" ref="G5" si="0">+E5-F5</f>
-        <v>144914.55000000002</v>
-      </c>
-      <c r="H5" s="22">
-        <f>+[26]Main!$N$3</f>
-        <v>472.5</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="J5" s="43">
-        <v>44823</v>
-      </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="20">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="82" t="s">
-        <v>263</v>
-      </c>
-      <c r="B6" s="82" t="s">
-        <v>269</v>
-      </c>
-      <c r="C6" s="82" t="s">
-        <v>270</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-    </row>
-    <row r="7" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="85" t="s">
-        <v>263</v>
-      </c>
-      <c r="B7" s="85" t="s">
-        <v>273</v>
-      </c>
-      <c r="C7" s="85" t="s">
-        <v>274</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="87" t="s">
-        <v>263</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="D8" s="10">
-        <v>73.88</v>
-      </c>
-      <c r="E8" s="52">
-        <f>+D8*H8</f>
-        <v>57820.358567719995</v>
-      </c>
-      <c r="F8" s="52">
-        <f>+[27]Main!$J$5-[27]Main!$J$6</f>
-        <v>7078</v>
-      </c>
-      <c r="G8" s="22">
-        <f t="shared" ref="G8" si="1">+E8-F8</f>
-        <v>50742.358567719995</v>
-      </c>
-      <c r="H8" s="52">
-        <f>+[27]Main!$J$3</f>
-        <v>782.62531899999999</v>
-      </c>
-      <c r="I8" s="147" t="s">
-        <v>362</v>
-      </c>
-      <c r="J8" s="67">
-        <v>44946</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="87" t="s">
-        <v>263</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="D9" s="52">
-        <v>59910</v>
-      </c>
-      <c r="E9" s="52" cm="1">
-        <f t="array" ref="E9">6975000/JPY</f>
-        <v>50938.435697071494</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="88" t="s">
-        <v>263</v>
-      </c>
-      <c r="B10" s="88" t="s">
-        <v>277</v>
-      </c>
-      <c r="C10" s="88" t="s">
-        <v>278</v>
-      </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="98" t="s">
-        <v>263</v>
-      </c>
-      <c r="B11" s="98" t="s">
-        <v>295</v>
-      </c>
-      <c r="C11" s="98" t="s">
-        <v>296</v>
-      </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="98" t="s">
-        <v>263</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="D12" s="10">
-        <v>130.47999999999999</v>
-      </c>
-      <c r="E12" s="52">
-        <f>+D12*H12</f>
-        <v>36664.879999999997</v>
-      </c>
-      <c r="F12" s="52">
-        <f>+[28]Main!$N$5-[28]Main!$N$6</f>
-        <v>538</v>
-      </c>
-      <c r="G12" s="52">
-        <f>+E12-F12</f>
-        <v>36126.879999999997</v>
-      </c>
-      <c r="H12" s="10">
-        <f>+[28]Main!$N$3</f>
-        <v>281</v>
-      </c>
-      <c r="I12" s="66" t="s">
-        <v>210</v>
-      </c>
-      <c r="J12" s="67">
-        <v>44799</v>
-      </c>
-      <c r="X12" s="10">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="2">
-        <v>27.7</v>
-      </c>
-      <c r="E13" s="3">
-        <f>+D13*[29]Main!$K$3</f>
-        <v>16302.031699999998</v>
-      </c>
-      <c r="F13" s="3">
-        <f>+[29]Main!$K$5-[29]Main!$K$6</f>
-        <v>2144.9299999999998</v>
-      </c>
-      <c r="G13" s="3">
-        <f>+E13-F13</f>
-        <v>14157.101699999997</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B14" s="138" t="s">
-        <v>343</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D15" s="10">
-        <v>127.74</v>
-      </c>
-      <c r="E15" s="52">
-        <v>21290</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="2">
-        <v>45.8</v>
-      </c>
-      <c r="E16" s="3">
-        <v>14330</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="21">
-        <v>102.23</v>
-      </c>
-      <c r="E18" s="22">
-        <f>+D18*[30]Main!$K$3</f>
-        <v>20147.20788088</v>
-      </c>
-      <c r="F18" s="22">
-        <f>+[30]Main!$K$5-[30]Main!$K$6</f>
-        <v>3155</v>
-      </c>
-      <c r="G18" s="22">
-        <f>E18-F18</f>
-        <v>16992.20788088</v>
-      </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="26"/>
-    </row>
-    <row r="19" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="65" t="s">
-        <v>260</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-    </row>
-    <row r="20" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-    </row>
-    <row r="21" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-    </row>
-    <row r="22" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3">
-        <v>31500</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22">
-        <v>27000</v>
-      </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-    </row>
-    <row r="25" spans="2:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22">
-        <v>10000</v>
-      </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B26" s="63" t="s">
-        <v>259</v>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="179" t="s">
+        <v>423</v>
+      </c>
+      <c r="C24" s="182" t="s">
+        <v>258</v>
+      </c>
+      <c r="D24" s="180">
+        <v>150</v>
+      </c>
+      <c r="F24" s="180">
+        <v>26</v>
+      </c>
+      <c r="I24" s="179" t="s">
+        <v>475</v>
+      </c>
+      <c r="J24" s="179">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="179" t="s">
+        <v>427</v>
+      </c>
+      <c r="C25" s="182" t="s">
+        <v>258</v>
+      </c>
+      <c r="I25" s="179" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="179" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="179" t="s">
+        <v>430</v>
+      </c>
+      <c r="F27" s="180">
+        <v>65</v>
+      </c>
+      <c r="J27" s="179">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="179" t="s">
+        <v>463</v>
+      </c>
+      <c r="F28" s="180">
+        <v>65</v>
+      </c>
+      <c r="J28" s="181">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="179" t="s">
+        <v>464</v>
+      </c>
+      <c r="F29" s="180">
+        <v>50</v>
+      </c>
+      <c r="I29" s="179" t="s">
+        <v>249</v>
+      </c>
+      <c r="J29" s="181">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="179" t="s">
+        <v>465</v>
+      </c>
+      <c r="F30" s="180">
+        <v>50</v>
+      </c>
+      <c r="I30" s="179" t="s">
+        <v>466</v>
+      </c>
+      <c r="J30" s="181">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="179" t="s">
+        <v>467</v>
+      </c>
+      <c r="F31" s="180">
+        <v>42</v>
+      </c>
+      <c r="J31" s="181">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="179" t="s">
+        <v>468</v>
+      </c>
+      <c r="F32" s="180">
+        <v>40</v>
+      </c>
+      <c r="J32" s="181">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="179" t="s">
+        <v>469</v>
+      </c>
+      <c r="F33" s="180">
+        <v>30</v>
+      </c>
+      <c r="I33" s="179" t="s">
+        <v>470</v>
+      </c>
+      <c r="J33" s="181">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="179" t="s">
+        <v>471</v>
+      </c>
+      <c r="F34" s="180">
+        <v>30</v>
+      </c>
+      <c r="I34" s="179" t="s">
+        <v>472</v>
+      </c>
+      <c r="J34" s="179">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="179" t="s">
+        <v>473</v>
+      </c>
+      <c r="F35" s="180">
+        <v>27</v>
+      </c>
+      <c r="I35" s="179" t="s">
+        <v>474</v>
+      </c>
+      <c r="J35" s="179">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="179" t="s">
+        <v>476</v>
+      </c>
+      <c r="F36" s="180">
+        <v>23</v>
+      </c>
+      <c r="I36" s="179" t="s">
+        <v>477</v>
+      </c>
+      <c r="J36" s="181">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="179" t="s">
+        <v>478</v>
+      </c>
+      <c r="F37" s="180">
+        <v>25</v>
+      </c>
+      <c r="I37" s="179" t="s">
+        <v>470</v>
+      </c>
+      <c r="J37" s="179">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="179" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="179" t="s">
+        <v>437</v>
+      </c>
+      <c r="I39" s="179" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="179" t="s">
+        <v>442</v>
+      </c>
+      <c r="F40" s="180">
+        <v>225</v>
+      </c>
+      <c r="J40" s="179">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="179" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="179" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="179" t="s">
+        <v>445</v>
+      </c>
+      <c r="F43" s="180">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="179" t="s">
+        <v>446</v>
+      </c>
+      <c r="F44" s="180">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="179" t="s">
+        <v>448</v>
+      </c>
+      <c r="F45" s="180">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="179" t="s">
+        <v>449</v>
+      </c>
+      <c r="F46" s="180">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="179" t="s">
+        <v>450</v>
+      </c>
+      <c r="F47" s="180">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="179" t="s">
+        <v>451</v>
+      </c>
+      <c r="F48" s="180">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="179" t="s">
+        <v>452</v>
+      </c>
+      <c r="F49" s="180">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="179" t="s">
+        <v>453</v>
+      </c>
+      <c r="F50" s="180">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="179" t="s">
+        <v>454</v>
+      </c>
+      <c r="F51" s="180">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="179" t="s">
+        <v>455</v>
+      </c>
+      <c r="F52" s="180">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="179" t="s">
+        <v>456</v>
+      </c>
+      <c r="F53" s="180">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="179" t="s">
+        <v>457</v>
+      </c>
+      <c r="F54" s="180">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="179" t="s">
+        <v>458</v>
+      </c>
+      <c r="F55" s="180">
+        <v>100</v>
+      </c>
+      <c r="I55" s="179" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="179" t="s">
+        <v>459</v>
+      </c>
+      <c r="F56" s="180">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="179" t="s">
+        <v>461</v>
+      </c>
+      <c r="F57" s="180">
+        <v>100</v>
+      </c>
+      <c r="J57" s="179">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="179" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="179" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="179" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="179" t="s">
+        <v>533</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="179" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="179" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="179" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="179" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="179" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="179" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="95" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="179" t="s">
+        <v>529</v>
+      </c>
+      <c r="H71" s="179" t="s">
+        <v>531</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="179" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="179" t="s">
+        <v>537</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="179" t="s">
+        <v>542</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" s="179" t="s">
+        <v>543</v>
+      </c>
+      <c r="C75" s="183" t="s">
+        <v>544</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{B2E999A0-B9C6-426F-B868-4B47C66D3C76}"/>
-    <hyperlink ref="B13" r:id="rId1" xr:uid="{4D4AAA00-BFE8-4498-9D01-136889AF20D4}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{3976EBF1-944B-4446-8A82-A83B8F045357}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{F038AE55-03C6-4C11-AB9A-E55BDED9EAEB}"/>
-    <hyperlink ref="B12" r:id="rId4" xr:uid="{7C332E55-E10B-4AF1-A314-5F96A0E9060B}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{D15C9016-D909-4B61-8E61-89DF546A9452}"/>
-    <hyperlink ref="B18" r:id="rId6" xr:uid="{B43B07AD-918B-4E3C-B6FF-2D0A1726D08C}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{54D233D9-C949-4228-9F3B-6F4618FC7C4C}"/>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A37A7071-3D61-430B-9870-62023C7BA352}"/>
+    <hyperlink ref="C73" r:id="rId1" xr:uid="{61933356-4DAE-46D4-BAAB-523E916DA4CD}"/>
+    <hyperlink ref="I22" r:id="rId2" xr:uid="{7C3C37F8-6BFF-44F4-8D86-2F59EFD976D8}"/>
+    <hyperlink ref="I61" r:id="rId3" xr:uid="{82D25570-50C8-456F-B7DA-93D23837F857}"/>
+    <hyperlink ref="I71" r:id="rId4" xr:uid="{1A3DF5F9-6F01-484D-8DB9-03E61CB068BA}"/>
+    <hyperlink ref="C74" r:id="rId5" xr:uid="{EF10DB56-5F70-48B5-A61C-02F154472CAD}"/>
+    <hyperlink ref="C75" r:id="rId6" xr:uid="{47D5FBF5-3BBD-473A-BCAE-24754E3588B6}"/>
+    <hyperlink ref="I14" r:id="rId7" xr:uid="{07022640-08BF-41D5-A0CC-B198C79145A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E275841C-1187-4786-8CDA-18459BF1140B}">
-  <dimension ref="A1:X33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFCBFEC-29DF-40E8-ABA2-B3BB501AC0C1}">
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="9.140625" style="68"/>
-    <col min="10" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="5" style="173" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="173" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="173"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="1:15">
+      <c r="B2" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="P2" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q2" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="R2" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="S2" s="19">
-        <v>2025</v>
-      </c>
-      <c r="T2" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="U2" s="18">
-        <v>2023</v>
-      </c>
-      <c r="V2" s="18">
-        <v>2024</v>
-      </c>
-      <c r="W2" s="19">
-        <v>2025</v>
-      </c>
-      <c r="X2" s="51" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" s="69">
-        <v>206.8</v>
-      </c>
-      <c r="E3" s="70">
-        <v>427830</v>
-      </c>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-    </row>
-    <row r="4" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="B4" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="112" t="s">
-        <v>325</v>
-      </c>
-      <c r="D4" s="69">
-        <v>340.89</v>
-      </c>
-      <c r="E4" s="70">
-        <v>329430</v>
-      </c>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-    </row>
-    <row r="5" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="83" t="s">
-        <v>263</v>
-      </c>
-      <c r="B5" s="83" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="83" t="s">
-        <v>268</v>
-      </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-    </row>
-    <row r="6" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="84" t="s">
-        <v>263</v>
-      </c>
-      <c r="B6" s="84" t="s">
-        <v>271</v>
-      </c>
-      <c r="C6" s="84" t="s">
-        <v>272</v>
-      </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-    </row>
-    <row r="7" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="82" t="s">
-        <v>263</v>
-      </c>
-      <c r="B7" s="115" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="21">
-        <v>413.72</v>
-      </c>
-      <c r="E7" s="22">
-        <f>+D7*H7</f>
-        <v>116615.20633988002</v>
-      </c>
-      <c r="F7" s="22">
-        <f>[31]Main!$L$5-[31]Main!$L$6</f>
-        <v>-2851</v>
-      </c>
-      <c r="G7" s="22">
-        <f>E7-F7</f>
-        <v>119466.20633988002</v>
-      </c>
-      <c r="H7" s="22">
-        <f>+[31]Main!$L$3</f>
-        <v>281.86987900000003</v>
-      </c>
-      <c r="I7" s="133" t="s">
-        <v>210</v>
-      </c>
-      <c r="J7" s="43">
-        <v>44830</v>
-      </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="20">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="84" t="s">
-        <v>263</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="60">
-        <v>87.2</v>
-      </c>
-      <c r="E8" s="3">
-        <v>100981</v>
-      </c>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="87" t="s">
-        <v>263</v>
-      </c>
-      <c r="B9" s="87" t="s">
-        <v>275</v>
-      </c>
-      <c r="C9" s="87" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="88" t="s">
-        <v>263</v>
-      </c>
-      <c r="B10" s="88" t="s">
-        <v>279</v>
-      </c>
-      <c r="C10" s="88" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="91" t="s">
-        <v>263</v>
-      </c>
-      <c r="B11" s="59" t="s">
-        <v>253</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11" s="69">
-        <v>70.94</v>
-      </c>
-      <c r="E11" s="70">
-        <v>41870</v>
-      </c>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-    </row>
-    <row r="12" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="91" t="s">
-        <v>263</v>
-      </c>
-      <c r="B12" s="91" t="s">
-        <v>281</v>
-      </c>
-      <c r="C12" s="91" t="s">
-        <v>282</v>
-      </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-    </row>
-    <row r="13" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="93" t="s">
-        <v>263</v>
-      </c>
-      <c r="B13" s="93" t="s">
-        <v>283</v>
-      </c>
-      <c r="C13" s="93" t="s">
-        <v>284</v>
-      </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-    </row>
-    <row r="14" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="99" t="s">
-        <v>263</v>
-      </c>
-      <c r="B14" s="99" t="s">
-        <v>299</v>
-      </c>
-      <c r="C14" s="99" t="s">
-        <v>299</v>
-      </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-    </row>
-    <row r="15" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="99" t="s">
-        <v>263</v>
-      </c>
-      <c r="B15" s="99" t="s">
-        <v>300</v>
-      </c>
-      <c r="C15" s="99" t="s">
-        <v>301</v>
-      </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-    </row>
-    <row r="16" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="104" t="s">
-        <v>263</v>
-      </c>
-      <c r="B16" s="104" t="s">
-        <v>304</v>
-      </c>
-      <c r="C16" s="104" t="s">
-        <v>305</v>
-      </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-    </row>
-    <row r="17" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="106" t="s">
-        <v>263</v>
-      </c>
-      <c r="B17" s="106" t="s">
-        <v>307</v>
-      </c>
-      <c r="C17" s="106" t="s">
-        <v>308</v>
-      </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-    </row>
-    <row r="18" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="109" t="s">
-        <v>263</v>
-      </c>
-      <c r="B18" s="109" t="s">
-        <v>317</v>
-      </c>
-      <c r="C18" s="109" t="s">
-        <v>318</v>
-      </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-    </row>
-    <row r="19" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="60">
-        <v>68.930000000000007</v>
-      </c>
-      <c r="E19" s="3">
-        <v>18053</v>
-      </c>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-    </row>
-    <row r="20" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="69">
-        <v>58.75</v>
-      </c>
-      <c r="E20" s="70">
-        <v>14980</v>
-      </c>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-    </row>
-    <row r="21" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="60">
-        <v>184.44</v>
-      </c>
-      <c r="E21" s="3">
-        <v>10400</v>
-      </c>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-    </row>
-    <row r="22" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="108" t="s">
-        <v>263</v>
-      </c>
-      <c r="B22" s="118" t="s">
-        <v>311</v>
-      </c>
-      <c r="C22" s="108" t="s">
-        <v>312</v>
-      </c>
-      <c r="D22" s="21">
-        <v>175.2</v>
-      </c>
-      <c r="E22" s="22">
-        <v>27500</v>
-      </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="26"/>
-    </row>
-    <row r="27" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="58" t="s">
+      <c r="C2" s="173">
+        <v>2010</v>
+      </c>
+      <c r="D2" s="173">
+        <f>C2+1</f>
+        <v>2011</v>
+      </c>
+      <c r="E2" s="173">
+        <f t="shared" ref="E2:O2" si="0">D2+1</f>
+        <v>2012</v>
+      </c>
+      <c r="F2" s="173">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="G2" s="173">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="H2" s="173">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="I2" s="173">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="J2" s="173">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="K2" s="173">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="L2" s="173">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="M2" s="173">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="N2" s="173">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="O2" s="173">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="B3" s="177" t="s">
+        <v>509</v>
+      </c>
+      <c r="C3" s="174">
+        <f>SUM(C5:C25)</f>
+        <v>62484</v>
+      </c>
+      <c r="D3" s="174">
+        <f t="shared" ref="D3:O3" si="1">SUM(D5:D25)</f>
+        <v>69943</v>
+      </c>
+      <c r="E3" s="174">
+        <f t="shared" si="1"/>
+        <v>119762</v>
+      </c>
+      <c r="F3" s="174">
+        <f t="shared" si="1"/>
+        <v>141240</v>
+      </c>
+      <c r="G3" s="174">
+        <f t="shared" si="1"/>
+        <v>169944</v>
+      </c>
+      <c r="H3" s="174">
+        <f t="shared" si="1"/>
+        <v>194377</v>
+      </c>
+      <c r="I3" s="174">
+        <f t="shared" si="1"/>
+        <v>253177</v>
+      </c>
+      <c r="J3" s="174">
+        <f t="shared" si="1"/>
+        <v>305432</v>
+      </c>
+      <c r="K3" s="174">
+        <f t="shared" si="1"/>
+        <v>371389</v>
+      </c>
+      <c r="L3" s="174">
+        <f t="shared" si="1"/>
+        <v>436330</v>
+      </c>
+      <c r="M3" s="174">
+        <f t="shared" si="1"/>
+        <v>503965</v>
+      </c>
+      <c r="N3" s="174">
+        <f t="shared" si="1"/>
+        <v>718643</v>
+      </c>
+      <c r="O3" s="178">
+        <f t="shared" si="1"/>
+        <v>825015.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" s="173" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="174">
+        <v>46039</v>
+      </c>
+      <c r="F5" s="174">
+        <v>55519</v>
+      </c>
+      <c r="G5" s="174">
+        <v>66001</v>
+      </c>
+      <c r="H5" s="174">
+        <v>74989</v>
+      </c>
+      <c r="I5" s="174">
+        <v>90272</v>
+      </c>
+      <c r="J5" s="174">
+        <v>110855</v>
+      </c>
+      <c r="K5" s="174">
+        <v>136819</v>
+      </c>
+      <c r="L5" s="174">
+        <v>161857</v>
+      </c>
+      <c r="M5" s="174">
+        <v>182527</v>
+      </c>
+      <c r="N5" s="174">
+        <v>257637</v>
+      </c>
+      <c r="O5" s="174">
+        <v>282836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6" s="173" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="174">
+        <v>62484</v>
+      </c>
+      <c r="D6" s="174">
+        <v>69943</v>
+      </c>
+      <c r="E6" s="174">
+        <v>73723</v>
+      </c>
+      <c r="F6" s="174">
+        <v>77849</v>
+      </c>
+      <c r="G6" s="174">
+        <v>86833</v>
+      </c>
+      <c r="H6" s="174">
+        <v>93580</v>
+      </c>
+      <c r="I6" s="174">
+        <v>85320</v>
+      </c>
+      <c r="J6" s="174">
+        <v>96571</v>
+      </c>
+      <c r="K6" s="174">
+        <v>110360</v>
+      </c>
+      <c r="L6" s="174">
+        <v>125843</v>
+      </c>
+      <c r="M6" s="174">
+        <v>143015</v>
+      </c>
+      <c r="N6" s="174">
+        <v>184903</v>
+      </c>
+      <c r="O6" s="174">
+        <v>204094</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7" s="173" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="174">
+        <v>7872</v>
+      </c>
+      <c r="G7" s="174">
+        <v>12466</v>
+      </c>
+      <c r="H7" s="174">
+        <v>17928</v>
+      </c>
+      <c r="I7" s="174">
+        <v>27638</v>
+      </c>
+      <c r="J7" s="174">
+        <v>40653</v>
+      </c>
+      <c r="K7" s="174">
+        <v>55838</v>
+      </c>
+      <c r="L7" s="174">
+        <v>70697</v>
+      </c>
+      <c r="M7" s="174">
+        <v>85965</v>
+      </c>
+      <c r="N7" s="174">
+        <v>117929</v>
+      </c>
+      <c r="O7" s="174">
+        <v>116609</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8" s="173" t="s">
+        <v>496</v>
+      </c>
+      <c r="G8" s="174">
+        <v>4644</v>
+      </c>
+      <c r="H8" s="174">
+        <v>7880</v>
+      </c>
+      <c r="I8" s="174">
+        <v>12219</v>
+      </c>
+      <c r="J8" s="174">
+        <v>17459</v>
+      </c>
+      <c r="K8" s="174">
+        <v>25655</v>
+      </c>
+      <c r="L8" s="174">
+        <v>35026</v>
+      </c>
+      <c r="M8" s="174">
+        <v>45370</v>
+      </c>
+      <c r="N8" s="174">
+        <v>62202</v>
+      </c>
+      <c r="O8" s="174">
+        <v>80096</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9" s="173" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="174">
+        <v>37728</v>
+      </c>
+      <c r="J9" s="174">
+        <v>39831</v>
+      </c>
+      <c r="K9" s="174">
+        <v>39506</v>
+      </c>
+      <c r="L9" s="174">
+        <v>39068</v>
+      </c>
+      <c r="M9" s="174">
+        <v>40479</v>
+      </c>
+      <c r="N9" s="174">
+        <v>42440</v>
+      </c>
+      <c r="O9" s="174">
+        <v>46073</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10" s="173" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="174">
+        <v>27843</v>
+      </c>
+      <c r="O10" s="175">
+        <f>N10*1.1</f>
+        <v>30627.300000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11" s="173" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="175">
+        <v>30294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="173" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="174">
+        <v>15785</v>
+      </c>
+      <c r="O12" s="175">
+        <f>N12*1.1</f>
+        <v>17363.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13" s="173" t="s">
+        <v>497</v>
+      </c>
+      <c r="J13" s="174">
+        <v>63</v>
+      </c>
+      <c r="K13" s="174">
+        <v>150</v>
+      </c>
+      <c r="L13" s="174">
+        <v>350</v>
+      </c>
+      <c r="M13" s="174">
+        <v>2640</v>
+      </c>
+      <c r="N13" s="174">
+        <v>4697</v>
+      </c>
+      <c r="O13" s="174">
+        <v>9401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" s="173" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" s="173" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" s="173" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="173" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="173" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="177" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" s="174">
+        <v>3061</v>
+      </c>
+      <c r="L19" s="174">
+        <v>3489</v>
+      </c>
+      <c r="M19" s="174">
+        <v>3969</v>
+      </c>
+      <c r="N19" s="174">
+        <v>5107</v>
+      </c>
+      <c r="O19" s="174">
+        <v>6622</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="173" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" s="61">
-        <v>0</v>
-      </c>
-      <c r="E27" s="9">
-        <v>100000</v>
-      </c>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B28" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="61">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B29" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="61">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B30" s="56" t="s">
-        <v>252</v>
-      </c>
-      <c r="D30" s="61">
-        <v>0</v>
-      </c>
-      <c r="E30" s="68">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B31" s="62" t="s">
-        <v>254</v>
-      </c>
-      <c r="D31" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B32" s="94" t="s">
-        <v>285</v>
-      </c>
-      <c r="E32" s="68">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="94" t="s">
-        <v>287</v>
-      </c>
-      <c r="E33" s="68">
-        <v>159.5</v>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="173" t="s">
+        <v>403</v>
+      </c>
+      <c r="N21" s="174">
+        <v>100</v>
+      </c>
+      <c r="O21" s="174">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="173" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="173" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="173" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="173" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A1A6C7BE-B827-4E66-8B30-A4C4FF1A4224}"/>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{B2FAC7EC-CB56-42A3-96CC-14E909698321}"/>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{04070A17-ACBF-4452-AFD7-3FBDA4940F36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>